--- a/data/Програмних_засобів_26-12-19_Форма 44_ ВIДОМIСТЬ ДОРУЧЕНЬ - 2020.xlsx
+++ b/data/Програмних_засобів_26-12-19_Форма 44_ ВIДОМIСТЬ ДОРУЧЕНЬ - 2020.xlsx
@@ -1,24 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="29040" windowHeight="13515"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25440" windowHeight="13515"/>
   </bookViews>
   <sheets>
     <sheet name="ПЗ" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">ПЗ!$A$1:$I$228</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">ПЗ!$14:$14</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">ПЗ!$A$1:$J$228</definedName>
   </definedNames>
-  <calcPr calcId="114210" fullCalcOnLoad="1"/>
+  <calcPr calcId="114210"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1135" uniqueCount="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1136" uniqueCount="186">
   <si>
     <t>МІНІСТЕРСТВО ОСВІТИ І НАУКИ УКРАЇНИ</t>
   </si>
@@ -399,10 +399,6 @@
   </si>
   <si>
     <t>KHT-226</t>
-  </si>
-  <si>
-    <t>Розробка прикладних інтелектуально-орієнтованих
- програмних продуктів</t>
   </si>
   <si>
     <t>Розробка прикладних інтелектуально-орієнтованих програмних продуктів</t>
@@ -588,8 +584,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="14">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -691,12 +687,18 @@
       <charset val="204"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="3">
@@ -740,7 +742,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -783,6 +785,12 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -810,13 +818,27 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
     <cellStyle name="Обычный 2" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1082,14 +1104,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M232"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:N232"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="70" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10:I10"/>
+      <selection activeCell="J13" sqref="J13:J14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5.85546875" style="1" customWidth="1"/>
     <col min="2" max="2" width="42" style="1" customWidth="1"/>
@@ -1098,48 +1120,50 @@
     <col min="5" max="5" width="17" style="1" customWidth="1"/>
     <col min="6" max="6" width="11.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="33" style="1" customWidth="1"/>
-    <col min="9" max="9" width="18.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="9" style="1"/>
+    <col min="8" max="9" width="33" style="1" customWidth="1"/>
+    <col min="10" max="10" width="18.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
-      <c r="I1" s="11" t="s">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="J1" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="J1" s="10"/>
       <c r="K1" s="10"/>
       <c r="L1" s="10"/>
       <c r="M1" s="10"/>
-    </row>
-    <row r="2" spans="1:13" ht="18.75">
-      <c r="A2" s="17" t="s">
+      <c r="N1" s="10"/>
+    </row>
+    <row r="2" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A2" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="17"/>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
-      <c r="F2" s="17"/>
-      <c r="G2" s="17"/>
-      <c r="H2" s="17"/>
-      <c r="I2" s="17"/>
-    </row>
-    <row r="3" spans="1:13" ht="7.5" customHeight="1"/>
-    <row r="4" spans="1:13" ht="30">
-      <c r="A4" s="18" t="s">
+      <c r="B2" s="19"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="19"/>
+      <c r="G2" s="19"/>
+      <c r="H2" s="19"/>
+      <c r="I2" s="19"/>
+      <c r="J2" s="19"/>
+    </row>
+    <row r="3" spans="1:14" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="4" spans="1:14" ht="30" x14ac:dyDescent="0.4">
+      <c r="A4" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="18"/>
-      <c r="C4" s="18"/>
-      <c r="D4" s="18"/>
-      <c r="E4" s="18"/>
-      <c r="F4" s="18"/>
-      <c r="G4" s="18"/>
-      <c r="H4" s="18"/>
-      <c r="I4" s="18"/>
-    </row>
-    <row r="5" spans="1:13" ht="6.75" customHeight="1">
+      <c r="B4" s="20"/>
+      <c r="C4" s="20"/>
+      <c r="D4" s="20"/>
+      <c r="E4" s="20"/>
+      <c r="F4" s="20"/>
+      <c r="G4" s="20"/>
+      <c r="H4" s="20"/>
+      <c r="I4" s="20"/>
+      <c r="J4" s="20"/>
+    </row>
+    <row r="5" spans="1:14" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
@@ -1149,21 +1173,23 @@
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
-    </row>
-    <row r="6" spans="1:13" ht="25.5">
-      <c r="A6" s="19" t="s">
+      <c r="J5" s="2"/>
+    </row>
+    <row r="6" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A6" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="19"/>
-      <c r="C6" s="19"/>
-      <c r="D6" s="19"/>
-      <c r="E6" s="19"/>
-      <c r="F6" s="19"/>
-      <c r="G6" s="19"/>
-      <c r="H6" s="19"/>
-      <c r="I6" s="19"/>
-    </row>
-    <row r="7" spans="1:13" ht="8.85" customHeight="1">
+      <c r="B6" s="21"/>
+      <c r="C6" s="21"/>
+      <c r="D6" s="21"/>
+      <c r="E6" s="21"/>
+      <c r="F6" s="21"/>
+      <c r="G6" s="21"/>
+      <c r="H6" s="21"/>
+      <c r="I6" s="21"/>
+      <c r="J6" s="21"/>
+    </row>
+    <row r="7" spans="1:14" ht="8.85" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
@@ -1172,22 +1198,24 @@
       <c r="F7" s="3"/>
       <c r="G7" s="3"/>
       <c r="H7" s="3"/>
-      <c r="I7" s="3"/>
-    </row>
-    <row r="8" spans="1:13" ht="15.75">
-      <c r="A8" s="20" t="s">
-        <v>184</v>
-      </c>
-      <c r="B8" s="20"/>
-      <c r="C8" s="20"/>
-      <c r="D8" s="20"/>
-      <c r="E8" s="20"/>
-      <c r="F8" s="20"/>
-      <c r="G8" s="20"/>
-      <c r="H8" s="20"/>
-      <c r="I8" s="20"/>
-    </row>
-    <row r="9" spans="1:13" ht="11.65" customHeight="1">
+      <c r="I7" s="16"/>
+      <c r="J7" s="3"/>
+    </row>
+    <row r="8" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="22" t="s">
+        <v>183</v>
+      </c>
+      <c r="B8" s="22"/>
+      <c r="C8" s="22"/>
+      <c r="D8" s="22"/>
+      <c r="E8" s="22"/>
+      <c r="F8" s="22"/>
+      <c r="G8" s="22"/>
+      <c r="H8" s="22"/>
+      <c r="I8" s="22"/>
+      <c r="J8" s="22"/>
+    </row>
+    <row r="9" spans="1:14" ht="11.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
@@ -1196,35 +1224,38 @@
       <c r="F9" s="3"/>
       <c r="G9" s="3"/>
       <c r="H9" s="3"/>
-      <c r="I9" s="3"/>
-    </row>
-    <row r="10" spans="1:13" ht="18.75">
-      <c r="A10" s="21" t="s">
-        <v>186</v>
-      </c>
-      <c r="B10" s="22"/>
-      <c r="C10" s="22"/>
-      <c r="D10" s="22"/>
-      <c r="E10" s="22"/>
-      <c r="F10" s="22"/>
-      <c r="G10" s="22"/>
-      <c r="H10" s="22"/>
-      <c r="I10" s="22"/>
-    </row>
-    <row r="11" spans="1:13" ht="18.75">
+      <c r="I9" s="16"/>
+      <c r="J9" s="3"/>
+    </row>
+    <row r="10" spans="1:14" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="23" t="s">
+        <v>185</v>
+      </c>
+      <c r="B10" s="24"/>
+      <c r="C10" s="24"/>
+      <c r="D10" s="24"/>
+      <c r="E10" s="24"/>
+      <c r="F10" s="24"/>
+      <c r="G10" s="24"/>
+      <c r="H10" s="24"/>
+      <c r="I10" s="24"/>
+      <c r="J10" s="24"/>
+    </row>
+    <row r="11" spans="1:14" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A11" s="4"/>
-      <c r="B11" s="21" t="s">
-        <v>185</v>
-      </c>
-      <c r="C11" s="21"/>
-      <c r="D11" s="21"/>
-      <c r="E11" s="21"/>
-      <c r="F11" s="21"/>
-      <c r="G11" s="21"/>
-      <c r="H11" s="21"/>
-      <c r="I11" s="21"/>
-    </row>
-    <row r="12" spans="1:13" ht="18.75">
+      <c r="B11" s="23" t="s">
+        <v>184</v>
+      </c>
+      <c r="C11" s="23"/>
+      <c r="D11" s="23"/>
+      <c r="E11" s="23"/>
+      <c r="F11" s="23"/>
+      <c r="G11" s="23"/>
+      <c r="H11" s="23"/>
+      <c r="I11" s="23"/>
+      <c r="J11" s="23"/>
+    </row>
+    <row r="12" spans="1:14" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A12" s="4"/>
       <c r="B12" s="5"/>
       <c r="C12" s="5"/>
@@ -1233,9 +1264,10 @@
       <c r="F12" s="5"/>
       <c r="G12" s="5"/>
       <c r="H12" s="5"/>
-      <c r="I12" s="5"/>
-    </row>
-    <row r="13" spans="1:13" ht="75">
+      <c r="I12" s="17"/>
+      <c r="J12" s="5"/>
+    </row>
+    <row r="13" spans="1:14" ht="93.75" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
         <v>4</v>
       </c>
@@ -1263,8 +1295,11 @@
       <c r="I13" s="7" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="14" spans="1:13">
+      <c r="J13" s="28" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" s="8">
         <v>1</v>
       </c>
@@ -1292,8 +1327,11 @@
       <c r="I14" s="8">
         <v>9</v>
       </c>
-    </row>
-    <row r="15" spans="1:13" s="14" customFormat="1">
+      <c r="J14" s="29">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="12">
         <v>1</v>
       </c>
@@ -1321,8 +1359,9 @@
       <c r="I15" s="13" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="16" spans="1:13" s="14" customFormat="1" ht="30">
+      <c r="J15" s="27"/>
+    </row>
+    <row r="16" spans="1:14" s="14" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A16" s="12">
         <v>1</v>
       </c>
@@ -1350,8 +1389,9 @@
       <c r="I16" s="13" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="17" spans="1:9" s="14" customFormat="1" ht="30">
+      <c r="J16" s="27"/>
+    </row>
+    <row r="17" spans="1:10" s="14" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" s="12">
         <v>1</v>
       </c>
@@ -1379,8 +1419,9 @@
       <c r="I17" s="13" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="18" spans="1:9" s="14" customFormat="1" ht="30">
+      <c r="J17" s="27"/>
+    </row>
+    <row r="18" spans="1:10" s="14" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A18" s="12">
         <v>1</v>
       </c>
@@ -1408,8 +1449,9 @@
       <c r="I18" s="13" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="19" spans="1:9" s="14" customFormat="1">
+      <c r="J18" s="27"/>
+    </row>
+    <row r="19" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="12">
         <v>2</v>
       </c>
@@ -1437,8 +1479,9 @@
       <c r="I19" s="13" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="20" spans="1:9" s="14" customFormat="1" ht="30">
+      <c r="J19" s="27"/>
+    </row>
+    <row r="20" spans="1:10" s="14" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A20" s="12">
         <v>2</v>
       </c>
@@ -1466,8 +1509,9 @@
       <c r="I20" s="13">
         <v>49.57</v>
       </c>
-    </row>
-    <row r="21" spans="1:9" s="14" customFormat="1" ht="30">
+      <c r="J20" s="27"/>
+    </row>
+    <row r="21" spans="1:10" s="14" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A21" s="12">
         <v>2</v>
       </c>
@@ -1495,8 +1539,9 @@
       <c r="I21" s="13" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="22" spans="1:9" s="14" customFormat="1">
+      <c r="J21" s="27"/>
+    </row>
+    <row r="22" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="12">
         <v>3</v>
       </c>
@@ -1524,8 +1569,9 @@
       <c r="I22" s="13" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="23" spans="1:9" s="14" customFormat="1">
+      <c r="J22" s="27"/>
+    </row>
+    <row r="23" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="12">
         <v>3</v>
       </c>
@@ -1553,8 +1599,9 @@
       <c r="I23" s="13">
         <v>49</v>
       </c>
-    </row>
-    <row r="24" spans="1:9" s="14" customFormat="1">
+      <c r="J23" s="27"/>
+    </row>
+    <row r="24" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="12">
         <v>3</v>
       </c>
@@ -1582,8 +1629,9 @@
       <c r="I24" s="13">
         <v>49</v>
       </c>
-    </row>
-    <row r="25" spans="1:9" s="14" customFormat="1">
+      <c r="J24" s="27"/>
+    </row>
+    <row r="25" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="12">
         <v>3</v>
       </c>
@@ -1611,8 +1659,9 @@
       <c r="I25" s="13">
         <v>49</v>
       </c>
-    </row>
-    <row r="26" spans="1:9" s="14" customFormat="1">
+      <c r="J25" s="27"/>
+    </row>
+    <row r="26" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="12">
         <v>3</v>
       </c>
@@ -1640,8 +1689,9 @@
       <c r="I26" s="13">
         <v>49</v>
       </c>
-    </row>
-    <row r="27" spans="1:9" s="14" customFormat="1">
+      <c r="J26" s="27"/>
+    </row>
+    <row r="27" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="12">
         <v>3</v>
       </c>
@@ -1669,8 +1719,9 @@
       <c r="I27" s="13">
         <v>49</v>
       </c>
-    </row>
-    <row r="28" spans="1:9" s="14" customFormat="1" ht="30">
+      <c r="J27" s="27"/>
+    </row>
+    <row r="28" spans="1:10" s="14" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A28" s="12">
         <v>4</v>
       </c>
@@ -1698,8 +1749,9 @@
       <c r="I28" s="13" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="29" spans="1:9" s="14" customFormat="1">
+      <c r="J28" s="27"/>
+    </row>
+    <row r="29" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="12">
         <v>4</v>
       </c>
@@ -1727,8 +1779,9 @@
       <c r="I29" s="13">
         <v>56</v>
       </c>
-    </row>
-    <row r="30" spans="1:9" s="14" customFormat="1">
+      <c r="J29" s="27"/>
+    </row>
+    <row r="30" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="12">
         <v>4</v>
       </c>
@@ -1756,8 +1809,9 @@
       <c r="I30" s="13">
         <v>56</v>
       </c>
-    </row>
-    <row r="31" spans="1:9" s="14" customFormat="1">
+      <c r="J30" s="27"/>
+    </row>
+    <row r="31" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="12">
         <v>4</v>
       </c>
@@ -1785,8 +1839,9 @@
       <c r="I31" s="13">
         <v>58</v>
       </c>
-    </row>
-    <row r="32" spans="1:9" s="14" customFormat="1">
+      <c r="J31" s="27"/>
+    </row>
+    <row r="32" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="12">
         <v>4</v>
       </c>
@@ -1814,8 +1869,9 @@
       <c r="I32" s="13">
         <v>58</v>
       </c>
-    </row>
-    <row r="33" spans="1:9" s="14" customFormat="1">
+      <c r="J32" s="27"/>
+    </row>
+    <row r="33" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="12">
         <v>4</v>
       </c>
@@ -1843,8 +1899,9 @@
       <c r="I33" s="13">
         <v>58</v>
       </c>
-    </row>
-    <row r="34" spans="1:9" s="14" customFormat="1">
+      <c r="J33" s="27"/>
+    </row>
+    <row r="34" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="12">
         <v>5</v>
       </c>
@@ -1872,8 +1929,9 @@
       <c r="I34" s="13" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="35" spans="1:9" s="14" customFormat="1">
+      <c r="J34" s="27"/>
+    </row>
+    <row r="35" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="12">
         <v>5</v>
       </c>
@@ -1901,8 +1959,9 @@
       <c r="I35" s="13">
         <v>57</v>
       </c>
-    </row>
-    <row r="36" spans="1:9" s="14" customFormat="1">
+      <c r="J35" s="27"/>
+    </row>
+    <row r="36" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="12">
         <v>5</v>
       </c>
@@ -1930,8 +1989,9 @@
       <c r="I36" s="13">
         <v>57</v>
       </c>
-    </row>
-    <row r="37" spans="1:9" s="14" customFormat="1" ht="30">
+      <c r="J36" s="27"/>
+    </row>
+    <row r="37" spans="1:10" s="14" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A37" s="12">
         <v>6</v>
       </c>
@@ -1959,8 +2019,9 @@
       <c r="I37" s="13" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="38" spans="1:9" s="14" customFormat="1">
+      <c r="J37" s="27"/>
+    </row>
+    <row r="38" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="12">
         <v>6</v>
       </c>
@@ -1988,8 +2049,9 @@
       <c r="I38" s="13">
         <v>57</v>
       </c>
-    </row>
-    <row r="39" spans="1:9" s="14" customFormat="1">
+      <c r="J38" s="27"/>
+    </row>
+    <row r="39" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="12">
         <v>6</v>
       </c>
@@ -2017,8 +2079,9 @@
       <c r="I39" s="13">
         <v>57</v>
       </c>
-    </row>
-    <row r="40" spans="1:9" s="14" customFormat="1">
+      <c r="J39" s="27"/>
+    </row>
+    <row r="40" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="12">
         <v>6</v>
       </c>
@@ -2046,8 +2109,9 @@
       <c r="I40" s="13">
         <v>57</v>
       </c>
-    </row>
-    <row r="41" spans="1:9" s="14" customFormat="1">
+      <c r="J40" s="27"/>
+    </row>
+    <row r="41" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="12">
         <v>7</v>
       </c>
@@ -2075,8 +2139,9 @@
       <c r="I41" s="13" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="42" spans="1:9" s="14" customFormat="1">
+      <c r="J41" s="27"/>
+    </row>
+    <row r="42" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42" s="12">
         <v>7</v>
       </c>
@@ -2104,8 +2169,9 @@
       <c r="I42" s="13">
         <v>49</v>
       </c>
-    </row>
-    <row r="43" spans="1:9" s="14" customFormat="1">
+      <c r="J42" s="27"/>
+    </row>
+    <row r="43" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="12">
         <v>7</v>
       </c>
@@ -2133,8 +2199,9 @@
       <c r="I43" s="13">
         <v>49</v>
       </c>
-    </row>
-    <row r="44" spans="1:9" s="14" customFormat="1">
+      <c r="J43" s="27"/>
+    </row>
+    <row r="44" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" s="12">
         <v>7</v>
       </c>
@@ -2162,8 +2229,9 @@
       <c r="I44" s="13">
         <v>49</v>
       </c>
-    </row>
-    <row r="45" spans="1:9" s="14" customFormat="1">
+      <c r="J44" s="27"/>
+    </row>
+    <row r="45" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A45" s="12">
         <v>7</v>
       </c>
@@ -2191,8 +2259,9 @@
       <c r="I45" s="13">
         <v>49</v>
       </c>
-    </row>
-    <row r="46" spans="1:9" s="14" customFormat="1">
+      <c r="J45" s="27"/>
+    </row>
+    <row r="46" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A46" s="12">
         <v>7</v>
       </c>
@@ -2220,8 +2289,9 @@
       <c r="I46" s="13">
         <v>49</v>
       </c>
-    </row>
-    <row r="47" spans="1:9" s="14" customFormat="1">
+      <c r="J46" s="27"/>
+    </row>
+    <row r="47" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A47" s="12">
         <v>8</v>
       </c>
@@ -2249,8 +2319,9 @@
       <c r="I47" s="13" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="48" spans="1:9" s="14" customFormat="1">
+      <c r="J47" s="27"/>
+    </row>
+    <row r="48" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A48" s="12">
         <v>8</v>
       </c>
@@ -2278,8 +2349,9 @@
       <c r="I48" s="13">
         <v>57</v>
       </c>
-    </row>
-    <row r="49" spans="1:9" s="14" customFormat="1">
+      <c r="J48" s="27"/>
+    </row>
+    <row r="49" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A49" s="12">
         <v>8</v>
       </c>
@@ -2307,8 +2379,9 @@
       <c r="I49" s="13">
         <v>57</v>
       </c>
-    </row>
-    <row r="50" spans="1:9" s="14" customFormat="1">
+      <c r="J49" s="27"/>
+    </row>
+    <row r="50" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A50" s="12">
         <v>8</v>
       </c>
@@ -2336,8 +2409,9 @@
       <c r="I50" s="13">
         <v>57</v>
       </c>
-    </row>
-    <row r="51" spans="1:9" s="14" customFormat="1">
+      <c r="J50" s="27"/>
+    </row>
+    <row r="51" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A51" s="12">
         <v>8</v>
       </c>
@@ -2365,8 +2439,9 @@
       <c r="I51" s="13">
         <v>57</v>
       </c>
-    </row>
-    <row r="52" spans="1:9" s="14" customFormat="1">
+      <c r="J51" s="27"/>
+    </row>
+    <row r="52" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A52" s="12">
         <v>8</v>
       </c>
@@ -2394,8 +2469,9 @@
       <c r="I52" s="13">
         <v>57</v>
       </c>
-    </row>
-    <row r="53" spans="1:9" s="14" customFormat="1" ht="30">
+      <c r="J52" s="27"/>
+    </row>
+    <row r="53" spans="1:10" s="14" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A53" s="12">
         <v>9</v>
       </c>
@@ -2423,8 +2499,9 @@
       <c r="I53" s="13" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="54" spans="1:9" s="14" customFormat="1" ht="30">
+      <c r="J53" s="27"/>
+    </row>
+    <row r="54" spans="1:10" s="14" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A54" s="12">
         <v>9</v>
       </c>
@@ -2452,8 +2529,9 @@
       <c r="I54" s="13">
         <v>49</v>
       </c>
-    </row>
-    <row r="55" spans="1:9" s="14" customFormat="1" ht="30">
+      <c r="J54" s="27"/>
+    </row>
+    <row r="55" spans="1:10" s="14" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A55" s="12">
         <v>9</v>
       </c>
@@ -2481,8 +2559,9 @@
       <c r="I55" s="13">
         <v>49</v>
       </c>
-    </row>
-    <row r="56" spans="1:9" s="14" customFormat="1" ht="30">
+      <c r="J55" s="27"/>
+    </row>
+    <row r="56" spans="1:10" s="14" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A56" s="12">
         <v>9</v>
       </c>
@@ -2510,8 +2589,9 @@
       <c r="I56" s="13">
         <v>49</v>
       </c>
-    </row>
-    <row r="57" spans="1:9" s="14" customFormat="1" ht="30">
+      <c r="J56" s="27"/>
+    </row>
+    <row r="57" spans="1:10" s="14" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A57" s="12">
         <v>9</v>
       </c>
@@ -2539,8 +2619,9 @@
       <c r="I57" s="13">
         <v>49</v>
       </c>
-    </row>
-    <row r="58" spans="1:9" s="14" customFormat="1" ht="30">
+      <c r="J57" s="27"/>
+    </row>
+    <row r="58" spans="1:10" s="14" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A58" s="12">
         <v>9</v>
       </c>
@@ -2568,8 +2649,9 @@
       <c r="I58" s="13">
         <v>49</v>
       </c>
-    </row>
-    <row r="59" spans="1:9" s="14" customFormat="1">
+      <c r="J58" s="27"/>
+    </row>
+    <row r="59" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A59" s="12">
         <v>10</v>
       </c>
@@ -2597,8 +2679,9 @@
       <c r="I59" s="13" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="60" spans="1:9" s="14" customFormat="1">
+      <c r="J59" s="27"/>
+    </row>
+    <row r="60" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A60" s="12">
         <v>10</v>
       </c>
@@ -2626,8 +2709,9 @@
       <c r="I60" s="13">
         <v>57</v>
       </c>
-    </row>
-    <row r="61" spans="1:9" s="14" customFormat="1">
+      <c r="J60" s="27"/>
+    </row>
+    <row r="61" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A61" s="12">
         <v>10</v>
       </c>
@@ -2655,8 +2739,9 @@
       <c r="I61" s="13">
         <v>57</v>
       </c>
-    </row>
-    <row r="62" spans="1:9" s="14" customFormat="1">
+      <c r="J61" s="27"/>
+    </row>
+    <row r="62" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A62" s="12">
         <v>10</v>
       </c>
@@ -2684,8 +2769,9 @@
       <c r="I62" s="13">
         <v>57</v>
       </c>
-    </row>
-    <row r="63" spans="1:9" s="14" customFormat="1">
+      <c r="J62" s="27"/>
+    </row>
+    <row r="63" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A63" s="12">
         <v>11</v>
       </c>
@@ -2713,8 +2799,9 @@
       <c r="I63" s="13" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="64" spans="1:9" s="14" customFormat="1">
+      <c r="J63" s="27"/>
+    </row>
+    <row r="64" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A64" s="12">
         <v>11</v>
       </c>
@@ -2742,8 +2829,9 @@
       <c r="I64" s="13">
         <v>58</v>
       </c>
-    </row>
-    <row r="65" spans="1:9" s="14" customFormat="1">
+      <c r="J64" s="27"/>
+    </row>
+    <row r="65" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A65" s="12">
         <v>11</v>
       </c>
@@ -2771,8 +2859,9 @@
       <c r="I65" s="13">
         <v>58</v>
       </c>
-    </row>
-    <row r="66" spans="1:9" s="14" customFormat="1">
+      <c r="J65" s="27"/>
+    </row>
+    <row r="66" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A66" s="12">
         <v>11</v>
       </c>
@@ -2800,8 +2889,9 @@
       <c r="I66" s="13">
         <v>58</v>
       </c>
-    </row>
-    <row r="67" spans="1:9" s="14" customFormat="1">
+      <c r="J66" s="27"/>
+    </row>
+    <row r="67" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A67" s="12">
         <v>12</v>
       </c>
@@ -2829,8 +2919,9 @@
       <c r="I67" s="13" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="68" spans="1:9" s="14" customFormat="1">
+      <c r="J67" s="27"/>
+    </row>
+    <row r="68" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A68" s="12">
         <v>12</v>
       </c>
@@ -2858,8 +2949,9 @@
       <c r="I68" s="13">
         <v>58</v>
       </c>
-    </row>
-    <row r="69" spans="1:9" s="14" customFormat="1">
+      <c r="J68" s="27"/>
+    </row>
+    <row r="69" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A69" s="12">
         <v>12</v>
       </c>
@@ -2887,46 +2979,49 @@
       <c r="I69" s="13">
         <v>58</v>
       </c>
-    </row>
-    <row r="70" spans="1:9" s="14" customFormat="1">
+      <c r="J69" s="27"/>
+    </row>
+    <row r="70" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A70" s="12" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B70" s="12" t="s">
         <v>71</v>
       </c>
       <c r="C70" s="15" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D70" s="13" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E70" s="13"/>
       <c r="F70" s="13"/>
       <c r="G70" s="13"/>
       <c r="H70" s="13"/>
       <c r="I70" s="13"/>
-    </row>
-    <row r="71" spans="1:9" s="14" customFormat="1">
+      <c r="J70" s="27"/>
+    </row>
+    <row r="71" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A71" s="12" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B71" s="12" t="s">
         <v>75</v>
       </c>
       <c r="C71" s="15" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D71" s="13" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E71" s="13"/>
       <c r="F71" s="13"/>
       <c r="G71" s="13"/>
       <c r="H71" s="13"/>
       <c r="I71" s="13"/>
-    </row>
-    <row r="72" spans="1:9" s="14" customFormat="1" ht="30">
+      <c r="J71" s="27"/>
+    </row>
+    <row r="72" spans="1:10" s="14" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A72" s="12">
         <v>13</v>
       </c>
@@ -2954,8 +3049,9 @@
       <c r="I72" s="13" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="73" spans="1:9" s="14" customFormat="1" ht="30">
+      <c r="J72" s="27"/>
+    </row>
+    <row r="73" spans="1:10" s="14" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A73" s="12">
         <v>13</v>
       </c>
@@ -2983,8 +3079,9 @@
       <c r="I73" s="13">
         <v>56</v>
       </c>
-    </row>
-    <row r="74" spans="1:9" s="14" customFormat="1" ht="30">
+      <c r="J73" s="27"/>
+    </row>
+    <row r="74" spans="1:10" s="14" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A74" s="12">
         <v>13</v>
       </c>
@@ -3012,8 +3109,9 @@
       <c r="I74" s="13">
         <v>56</v>
       </c>
-    </row>
-    <row r="75" spans="1:9" s="14" customFormat="1" ht="30">
+      <c r="J74" s="27"/>
+    </row>
+    <row r="75" spans="1:10" s="14" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A75" s="12">
         <v>13</v>
       </c>
@@ -3041,8 +3139,9 @@
       <c r="I75" s="13">
         <v>56</v>
       </c>
-    </row>
-    <row r="76" spans="1:9" s="14" customFormat="1">
+      <c r="J75" s="27"/>
+    </row>
+    <row r="76" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A76" s="12">
         <v>14</v>
       </c>
@@ -3070,8 +3169,9 @@
       <c r="I76" s="13" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="77" spans="1:9" s="14" customFormat="1">
+      <c r="J76" s="27"/>
+    </row>
+    <row r="77" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A77" s="12">
         <v>14</v>
       </c>
@@ -3099,8 +3199,9 @@
       <c r="I77" s="13">
         <v>56</v>
       </c>
-    </row>
-    <row r="78" spans="1:9" s="14" customFormat="1">
+      <c r="J77" s="27"/>
+    </row>
+    <row r="78" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A78" s="12">
         <v>14</v>
       </c>
@@ -3128,8 +3229,9 @@
       <c r="I78" s="13">
         <v>56</v>
       </c>
-    </row>
-    <row r="79" spans="1:9" s="14" customFormat="1">
+      <c r="J78" s="27"/>
+    </row>
+    <row r="79" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A79" s="12">
         <v>14</v>
       </c>
@@ -3157,8 +3259,9 @@
       <c r="I79" s="13">
         <v>56</v>
       </c>
-    </row>
-    <row r="80" spans="1:9" s="14" customFormat="1">
+      <c r="J79" s="27"/>
+    </row>
+    <row r="80" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A80" s="12">
         <v>15</v>
       </c>
@@ -3186,8 +3289,9 @@
       <c r="I80" s="13" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="81" spans="1:9" s="14" customFormat="1">
+      <c r="J80" s="27"/>
+    </row>
+    <row r="81" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A81" s="12">
         <v>15</v>
       </c>
@@ -3215,8 +3319,9 @@
       <c r="I81" s="13">
         <v>49</v>
       </c>
-    </row>
-    <row r="82" spans="1:9" s="14" customFormat="1">
+      <c r="J81" s="27"/>
+    </row>
+    <row r="82" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A82" s="12">
         <v>15</v>
       </c>
@@ -3244,8 +3349,9 @@
       <c r="I82" s="13">
         <v>49</v>
       </c>
-    </row>
-    <row r="83" spans="1:9" s="14" customFormat="1">
+      <c r="J82" s="27"/>
+    </row>
+    <row r="83" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A83" s="12">
         <v>15</v>
       </c>
@@ -3273,8 +3379,9 @@
       <c r="I83" s="13">
         <v>49</v>
       </c>
-    </row>
-    <row r="84" spans="1:9" s="14" customFormat="1">
+      <c r="J83" s="27"/>
+    </row>
+    <row r="84" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A84" s="12">
         <v>15</v>
       </c>
@@ -3302,8 +3409,9 @@
       <c r="I84" s="13">
         <v>49</v>
       </c>
-    </row>
-    <row r="85" spans="1:9" s="14" customFormat="1">
+      <c r="J84" s="27"/>
+    </row>
+    <row r="85" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A85" s="12">
         <v>15</v>
       </c>
@@ -3331,8 +3439,9 @@
       <c r="I85" s="13">
         <v>49</v>
       </c>
-    </row>
-    <row r="86" spans="1:9" s="14" customFormat="1">
+      <c r="J85" s="27"/>
+    </row>
+    <row r="86" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A86" s="12">
         <v>16</v>
       </c>
@@ -3360,8 +3469,9 @@
       <c r="I86" s="13" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="87" spans="1:9" s="14" customFormat="1">
+      <c r="J86" s="27"/>
+    </row>
+    <row r="87" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A87" s="12">
         <v>16</v>
       </c>
@@ -3389,8 +3499,9 @@
       <c r="I87" s="13">
         <v>56</v>
       </c>
-    </row>
-    <row r="88" spans="1:9" s="14" customFormat="1">
+      <c r="J87" s="27"/>
+    </row>
+    <row r="88" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A88" s="12">
         <v>16</v>
       </c>
@@ -3418,8 +3529,9 @@
       <c r="I88" s="13">
         <v>56</v>
       </c>
-    </row>
-    <row r="89" spans="1:9" s="14" customFormat="1">
+      <c r="J88" s="27"/>
+    </row>
+    <row r="89" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A89" s="12">
         <v>16</v>
       </c>
@@ -3447,8 +3559,9 @@
       <c r="I89" s="13">
         <v>56</v>
       </c>
-    </row>
-    <row r="90" spans="1:9" s="14" customFormat="1" ht="30">
+      <c r="J89" s="27"/>
+    </row>
+    <row r="90" spans="1:10" s="14" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A90" s="12">
         <v>17</v>
       </c>
@@ -3476,8 +3589,9 @@
       <c r="I90" s="13" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="91" spans="1:9" s="14" customFormat="1" ht="30">
+      <c r="J90" s="27"/>
+    </row>
+    <row r="91" spans="1:10" s="14" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A91" s="12">
         <v>17</v>
       </c>
@@ -3505,8 +3619,9 @@
       <c r="I91" s="13">
         <v>56</v>
       </c>
-    </row>
-    <row r="92" spans="1:9" s="14" customFormat="1" ht="30">
+      <c r="J91" s="27"/>
+    </row>
+    <row r="92" spans="1:10" s="14" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A92" s="12">
         <v>17</v>
       </c>
@@ -3534,8 +3649,9 @@
       <c r="I92" s="13">
         <v>56</v>
       </c>
-    </row>
-    <row r="93" spans="1:9" s="14" customFormat="1" ht="30">
+      <c r="J92" s="27"/>
+    </row>
+    <row r="93" spans="1:10" s="14" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A93" s="12">
         <v>17</v>
       </c>
@@ -3563,8 +3679,9 @@
       <c r="I93" s="13">
         <v>56</v>
       </c>
-    </row>
-    <row r="94" spans="1:9" s="14" customFormat="1">
+      <c r="J93" s="27"/>
+    </row>
+    <row r="94" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A94" s="12">
         <v>18</v>
       </c>
@@ -3592,8 +3709,9 @@
       <c r="I94" s="13" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="95" spans="1:9" s="14" customFormat="1">
+      <c r="J94" s="27"/>
+    </row>
+    <row r="95" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A95" s="12">
         <v>18</v>
       </c>
@@ -3621,8 +3739,9 @@
       <c r="I95" s="13">
         <v>58</v>
       </c>
-    </row>
-    <row r="96" spans="1:9" s="14" customFormat="1">
+      <c r="J95" s="27"/>
+    </row>
+    <row r="96" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A96" s="12">
         <v>18</v>
       </c>
@@ -3650,8 +3769,9 @@
       <c r="I96" s="13">
         <v>58</v>
       </c>
-    </row>
-    <row r="97" spans="1:9" s="14" customFormat="1">
+      <c r="J96" s="27"/>
+    </row>
+    <row r="97" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A97" s="12">
         <v>18</v>
       </c>
@@ -3679,8 +3799,9 @@
       <c r="I97" s="13">
         <v>58</v>
       </c>
-    </row>
-    <row r="98" spans="1:9" s="14" customFormat="1">
+      <c r="J97" s="27"/>
+    </row>
+    <row r="98" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A98" s="12">
         <v>19</v>
       </c>
@@ -3708,8 +3829,9 @@
       <c r="I98" s="13" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="99" spans="1:9" s="14" customFormat="1">
+      <c r="J98" s="27"/>
+    </row>
+    <row r="99" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A99" s="12">
         <v>19</v>
       </c>
@@ -3737,8 +3859,9 @@
       <c r="I99" s="13">
         <v>57</v>
       </c>
-    </row>
-    <row r="100" spans="1:9" s="14" customFormat="1">
+      <c r="J99" s="27"/>
+    </row>
+    <row r="100" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A100" s="12">
         <v>19</v>
       </c>
@@ -3766,8 +3889,9 @@
       <c r="I100" s="13">
         <v>57</v>
       </c>
-    </row>
-    <row r="101" spans="1:9" s="14" customFormat="1">
+      <c r="J100" s="27"/>
+    </row>
+    <row r="101" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A101" s="12">
         <v>19</v>
       </c>
@@ -3795,8 +3919,9 @@
       <c r="I101" s="13">
         <v>57</v>
       </c>
-    </row>
-    <row r="102" spans="1:9" s="14" customFormat="1">
+      <c r="J101" s="27"/>
+    </row>
+    <row r="102" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A102" s="12">
         <v>20</v>
       </c>
@@ -3824,8 +3949,9 @@
       <c r="I102" s="13" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="103" spans="1:9" s="14" customFormat="1">
+      <c r="J102" s="27"/>
+    </row>
+    <row r="103" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A103" s="12">
         <v>20</v>
       </c>
@@ -3853,8 +3979,9 @@
       <c r="I103" s="13">
         <v>49</v>
       </c>
-    </row>
-    <row r="104" spans="1:9" s="14" customFormat="1">
+      <c r="J103" s="27"/>
+    </row>
+    <row r="104" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A104" s="12">
         <v>20</v>
       </c>
@@ -3882,8 +4009,9 @@
       <c r="I104" s="13">
         <v>49</v>
       </c>
-    </row>
-    <row r="105" spans="1:9" s="14" customFormat="1">
+      <c r="J104" s="27"/>
+    </row>
+    <row r="105" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A105" s="12">
         <v>20</v>
       </c>
@@ -3911,8 +4039,9 @@
       <c r="I105" s="13">
         <v>49</v>
       </c>
-    </row>
-    <row r="106" spans="1:9" s="14" customFormat="1">
+      <c r="J105" s="27"/>
+    </row>
+    <row r="106" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A106" s="12">
         <v>21</v>
       </c>
@@ -3940,8 +4069,9 @@
       <c r="I106" s="13" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="107" spans="1:9" s="14" customFormat="1">
+      <c r="J106" s="27"/>
+    </row>
+    <row r="107" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A107" s="12">
         <v>21</v>
       </c>
@@ -3969,8 +4099,9 @@
       <c r="I107" s="13">
         <v>57</v>
       </c>
-    </row>
-    <row r="108" spans="1:9" s="14" customFormat="1">
+      <c r="J107" s="27"/>
+    </row>
+    <row r="108" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A108" s="12">
         <v>21</v>
       </c>
@@ -3998,10 +4129,11 @@
       <c r="I108" s="13">
         <v>57</v>
       </c>
-    </row>
-    <row r="109" spans="1:9" s="14" customFormat="1">
+      <c r="J108" s="27"/>
+    </row>
+    <row r="109" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A109" s="12" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B109" s="12" t="s">
         <v>71</v>
@@ -4010,15 +4142,16 @@
         <v>93</v>
       </c>
       <c r="D109" s="13" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E109" s="13"/>
       <c r="F109" s="13"/>
       <c r="G109" s="13"/>
       <c r="H109" s="13"/>
       <c r="I109" s="13"/>
-    </row>
-    <row r="110" spans="1:9" s="14" customFormat="1" ht="30">
+      <c r="J109" s="27"/>
+    </row>
+    <row r="110" spans="1:10" s="14" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A110" s="12">
         <v>22</v>
       </c>
@@ -4046,8 +4179,9 @@
       <c r="I110" s="13" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="111" spans="1:9" s="14" customFormat="1">
+      <c r="J110" s="27"/>
+    </row>
+    <row r="111" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A111" s="12">
         <v>22</v>
       </c>
@@ -4075,8 +4209,9 @@
       <c r="I111" s="13">
         <v>56</v>
       </c>
-    </row>
-    <row r="112" spans="1:9" s="14" customFormat="1">
+      <c r="J111" s="27"/>
+    </row>
+    <row r="112" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A112" s="12">
         <v>22</v>
       </c>
@@ -4104,8 +4239,9 @@
       <c r="I112" s="13">
         <v>56</v>
       </c>
-    </row>
-    <row r="113" spans="1:9" s="14" customFormat="1">
+      <c r="J112" s="27"/>
+    </row>
+    <row r="113" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A113" s="12">
         <v>22</v>
       </c>
@@ -4133,8 +4269,9 @@
       <c r="I113" s="13">
         <v>56</v>
       </c>
-    </row>
-    <row r="114" spans="1:9" s="14" customFormat="1">
+      <c r="J113" s="27"/>
+    </row>
+    <row r="114" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A114" s="12">
         <v>22</v>
       </c>
@@ -4162,8 +4299,9 @@
       <c r="I114" s="13">
         <v>56</v>
       </c>
-    </row>
-    <row r="115" spans="1:9" s="14" customFormat="1">
+      <c r="J114" s="27"/>
+    </row>
+    <row r="115" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A115" s="12">
         <v>22</v>
       </c>
@@ -4191,8 +4329,9 @@
       <c r="I115" s="13">
         <v>56</v>
       </c>
-    </row>
-    <row r="116" spans="1:9" s="14" customFormat="1" ht="30">
+      <c r="J115" s="27"/>
+    </row>
+    <row r="116" spans="1:10" s="14" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A116" s="12">
         <v>23</v>
       </c>
@@ -4220,8 +4359,9 @@
       <c r="I116" s="13" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="117" spans="1:9" s="14" customFormat="1" ht="30">
+      <c r="J116" s="27"/>
+    </row>
+    <row r="117" spans="1:10" s="14" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A117" s="12">
         <v>23</v>
       </c>
@@ -4249,8 +4389,9 @@
       <c r="I117" s="13">
         <v>57</v>
       </c>
-    </row>
-    <row r="118" spans="1:9" s="14" customFormat="1" ht="30">
+      <c r="J117" s="27"/>
+    </row>
+    <row r="118" spans="1:10" s="14" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A118" s="12">
         <v>23</v>
       </c>
@@ -4278,8 +4419,9 @@
       <c r="I118" s="13">
         <v>57</v>
       </c>
-    </row>
-    <row r="119" spans="1:9" s="14" customFormat="1" ht="30">
+      <c r="J118" s="27"/>
+    </row>
+    <row r="119" spans="1:10" s="14" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A119" s="12">
         <v>23</v>
       </c>
@@ -4307,8 +4449,9 @@
       <c r="I119" s="13">
         <v>57</v>
       </c>
-    </row>
-    <row r="120" spans="1:9" s="14" customFormat="1">
+      <c r="J119" s="27"/>
+    </row>
+    <row r="120" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A120" s="12">
         <v>24</v>
       </c>
@@ -4336,8 +4479,9 @@
       <c r="I120" s="13" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="121" spans="1:9" s="14" customFormat="1">
+      <c r="J120" s="27"/>
+    </row>
+    <row r="121" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A121" s="12">
         <v>24</v>
       </c>
@@ -4365,8 +4509,9 @@
       <c r="I121" s="13">
         <v>58</v>
       </c>
-    </row>
-    <row r="122" spans="1:9" s="14" customFormat="1">
+      <c r="J121" s="27"/>
+    </row>
+    <row r="122" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A122" s="12">
         <v>24</v>
       </c>
@@ -4394,8 +4539,9 @@
       <c r="I122" s="13">
         <v>58</v>
       </c>
-    </row>
-    <row r="123" spans="1:9" s="14" customFormat="1">
+      <c r="J122" s="27"/>
+    </row>
+    <row r="123" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A123" s="12">
         <v>24</v>
       </c>
@@ -4423,8 +4569,9 @@
       <c r="I123" s="13">
         <v>58</v>
       </c>
-    </row>
-    <row r="124" spans="1:9" s="14" customFormat="1" ht="30">
+      <c r="J123" s="27"/>
+    </row>
+    <row r="124" spans="1:10" s="14" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A124" s="12">
         <v>25</v>
       </c>
@@ -4452,8 +4599,9 @@
       <c r="I124" s="13" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="125" spans="1:9" s="14" customFormat="1">
+      <c r="J124" s="27"/>
+    </row>
+    <row r="125" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A125" s="12">
         <v>25</v>
       </c>
@@ -4481,8 +4629,9 @@
       <c r="I125" s="13">
         <v>57</v>
       </c>
-    </row>
-    <row r="126" spans="1:9" s="14" customFormat="1">
+      <c r="J125" s="27"/>
+    </row>
+    <row r="126" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A126" s="12">
         <v>25</v>
       </c>
@@ -4510,8 +4659,9 @@
       <c r="I126" s="13">
         <v>57</v>
       </c>
-    </row>
-    <row r="127" spans="1:9" s="14" customFormat="1">
+      <c r="J126" s="27"/>
+    </row>
+    <row r="127" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A127" s="12">
         <v>25</v>
       </c>
@@ -4539,84 +4689,89 @@
       <c r="I127" s="13">
         <v>57</v>
       </c>
-    </row>
-    <row r="128" spans="1:9" s="14" customFormat="1">
+      <c r="J127" s="27"/>
+    </row>
+    <row r="128" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A128" s="12" t="s">
+        <v>166</v>
+      </c>
+      <c r="B128" s="12" t="s">
         <v>167</v>
-      </c>
-      <c r="B128" s="12" t="s">
-        <v>168</v>
       </c>
       <c r="C128" s="15" t="s">
         <v>94</v>
       </c>
       <c r="D128" s="12" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E128" s="13"/>
       <c r="F128" s="13"/>
       <c r="G128" s="13"/>
       <c r="H128" s="13"/>
       <c r="I128" s="13"/>
-    </row>
-    <row r="129" spans="1:9" s="14" customFormat="1">
+      <c r="J128" s="27"/>
+    </row>
+    <row r="129" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A129" s="12" t="s">
+        <v>166</v>
+      </c>
+      <c r="B129" s="12" t="s">
         <v>167</v>
       </c>
-      <c r="B129" s="12" t="s">
+      <c r="C129" s="15" t="s">
         <v>168</v>
       </c>
-      <c r="C129" s="15" t="s">
-        <v>169</v>
-      </c>
       <c r="D129" s="12" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E129" s="13"/>
       <c r="F129" s="13"/>
       <c r="G129" s="13"/>
       <c r="H129" s="13"/>
       <c r="I129" s="13"/>
-    </row>
-    <row r="130" spans="1:9" s="14" customFormat="1">
+      <c r="J129" s="27"/>
+    </row>
+    <row r="130" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A130" s="12" t="s">
+        <v>166</v>
+      </c>
+      <c r="B130" s="12" t="s">
         <v>167</v>
       </c>
-      <c r="B130" s="12" t="s">
-        <v>168</v>
-      </c>
       <c r="C130" s="15" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D130" s="12" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E130" s="13"/>
       <c r="F130" s="13"/>
       <c r="G130" s="13"/>
       <c r="H130" s="13"/>
       <c r="I130" s="13"/>
-    </row>
-    <row r="131" spans="1:9" s="14" customFormat="1">
+      <c r="J130" s="27"/>
+    </row>
+    <row r="131" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A131" s="12" t="s">
+        <v>166</v>
+      </c>
+      <c r="B131" s="12" t="s">
         <v>167</v>
       </c>
-      <c r="B131" s="12" t="s">
-        <v>168</v>
-      </c>
       <c r="C131" s="15" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D131" s="12" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E131" s="13"/>
       <c r="F131" s="13"/>
       <c r="G131" s="13"/>
       <c r="H131" s="13"/>
       <c r="I131" s="13"/>
-    </row>
-    <row r="132" spans="1:9" s="14" customFormat="1">
+      <c r="J131" s="27"/>
+    </row>
+    <row r="132" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A132" s="12">
         <v>26</v>
       </c>
@@ -4644,8 +4799,9 @@
       <c r="I132" s="13" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="133" spans="1:9" s="14" customFormat="1">
+      <c r="J132" s="27"/>
+    </row>
+    <row r="133" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A133" s="12">
         <v>26</v>
       </c>
@@ -4673,8 +4829,9 @@
       <c r="I133" s="13">
         <v>57</v>
       </c>
-    </row>
-    <row r="134" spans="1:9" s="14" customFormat="1">
+      <c r="J133" s="27"/>
+    </row>
+    <row r="134" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A134" s="12">
         <v>26</v>
       </c>
@@ -4702,8 +4859,9 @@
       <c r="I134" s="13">
         <v>57</v>
       </c>
-    </row>
-    <row r="135" spans="1:9" s="14" customFormat="1">
+      <c r="J134" s="27"/>
+    </row>
+    <row r="135" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A135" s="12">
         <v>27</v>
       </c>
@@ -4731,8 +4889,9 @@
       <c r="I135" s="13" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="136" spans="1:9" s="14" customFormat="1">
+      <c r="J135" s="27"/>
+    </row>
+    <row r="136" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A136" s="12">
         <v>27</v>
       </c>
@@ -4760,8 +4919,9 @@
       <c r="I136" s="13">
         <v>57</v>
       </c>
-    </row>
-    <row r="137" spans="1:9" s="14" customFormat="1">
+      <c r="J136" s="27"/>
+    </row>
+    <row r="137" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A137" s="12">
         <v>27</v>
       </c>
@@ -4789,10 +4949,11 @@
       <c r="I137" s="13">
         <v>57</v>
       </c>
-    </row>
-    <row r="138" spans="1:9" s="14" customFormat="1">
+      <c r="J137" s="27"/>
+    </row>
+    <row r="138" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A138" s="12" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B138" s="12" t="s">
         <v>91</v>
@@ -4801,15 +4962,16 @@
         <v>100</v>
       </c>
       <c r="D138" s="12" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E138" s="13"/>
       <c r="F138" s="13"/>
       <c r="G138" s="13"/>
       <c r="H138" s="13"/>
       <c r="I138" s="13"/>
-    </row>
-    <row r="139" spans="1:9" s="14" customFormat="1">
+      <c r="J138" s="27"/>
+    </row>
+    <row r="139" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A139" s="12">
         <v>28</v>
       </c>
@@ -4837,8 +4999,9 @@
       <c r="I139" s="13" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="140" spans="1:9" s="14" customFormat="1">
+      <c r="J139" s="27"/>
+    </row>
+    <row r="140" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A140" s="12">
         <v>28</v>
       </c>
@@ -4866,8 +5029,9 @@
       <c r="I140" s="13">
         <v>49</v>
       </c>
-    </row>
-    <row r="141" spans="1:9" s="14" customFormat="1">
+      <c r="J140" s="27"/>
+    </row>
+    <row r="141" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A141" s="12">
         <v>28</v>
       </c>
@@ -4895,65 +5059,69 @@
       <c r="I141" s="13">
         <v>49</v>
       </c>
-    </row>
-    <row r="142" spans="1:9" s="14" customFormat="1">
+      <c r="J141" s="27"/>
+    </row>
+    <row r="142" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A142" s="12" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B142" s="12" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C142" s="15" t="s">
         <v>101</v>
       </c>
       <c r="D142" s="12" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E142" s="13"/>
       <c r="F142" s="13"/>
       <c r="G142" s="13"/>
       <c r="H142" s="13"/>
       <c r="I142" s="13"/>
-    </row>
-    <row r="143" spans="1:9" s="14" customFormat="1">
+      <c r="J142" s="27"/>
+    </row>
+    <row r="143" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A143" s="12" t="s">
+        <v>172</v>
+      </c>
+      <c r="B143" s="12" t="s">
+        <v>167</v>
+      </c>
+      <c r="C143" s="15" t="s">
         <v>173</v>
       </c>
-      <c r="B143" s="12" t="s">
-        <v>168</v>
-      </c>
-      <c r="C143" s="15" t="s">
-        <v>174</v>
-      </c>
       <c r="D143" s="12" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E143" s="13"/>
       <c r="F143" s="13"/>
       <c r="G143" s="13"/>
       <c r="H143" s="13"/>
       <c r="I143" s="13"/>
-    </row>
-    <row r="144" spans="1:9" s="14" customFormat="1">
+      <c r="J143" s="27"/>
+    </row>
+    <row r="144" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A144" s="12" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B144" s="12" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C144" s="15" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D144" s="12" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E144" s="13"/>
       <c r="F144" s="13"/>
       <c r="G144" s="13"/>
       <c r="H144" s="13"/>
       <c r="I144" s="13"/>
-    </row>
-    <row r="145" spans="1:9" s="14" customFormat="1">
+      <c r="J144" s="27"/>
+    </row>
+    <row r="145" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A145" s="12">
         <v>29</v>
       </c>
@@ -4981,8 +5149,9 @@
       <c r="I145" s="13" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="146" spans="1:9" s="14" customFormat="1">
+      <c r="J145" s="27"/>
+    </row>
+    <row r="146" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A146" s="12">
         <v>29</v>
       </c>
@@ -5010,8 +5179,9 @@
       <c r="I146" s="13">
         <v>57</v>
       </c>
-    </row>
-    <row r="147" spans="1:9" s="14" customFormat="1">
+      <c r="J146" s="27"/>
+    </row>
+    <row r="147" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A147" s="12">
         <v>29</v>
       </c>
@@ -5039,8 +5209,9 @@
       <c r="I147" s="13">
         <v>57</v>
       </c>
-    </row>
-    <row r="148" spans="1:9" s="14" customFormat="1">
+      <c r="J147" s="27"/>
+    </row>
+    <row r="148" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A148" s="12">
         <v>30</v>
       </c>
@@ -5068,8 +5239,9 @@
       <c r="I148" s="13" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="149" spans="1:9" s="14" customFormat="1">
+      <c r="J148" s="27"/>
+    </row>
+    <row r="149" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A149" s="12">
         <v>30</v>
       </c>
@@ -5097,8 +5269,9 @@
       <c r="I149" s="13">
         <v>57</v>
       </c>
-    </row>
-    <row r="150" spans="1:9" s="14" customFormat="1">
+      <c r="J149" s="27"/>
+    </row>
+    <row r="150" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A150" s="12">
         <v>30</v>
       </c>
@@ -5126,8 +5299,9 @@
       <c r="I150" s="13">
         <v>57</v>
       </c>
-    </row>
-    <row r="151" spans="1:9" s="14" customFormat="1" ht="45">
+      <c r="J150" s="27"/>
+    </row>
+    <row r="151" spans="1:10" s="14" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A151" s="12">
         <v>31</v>
       </c>
@@ -5155,8 +5329,9 @@
       <c r="I151" s="13" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="152" spans="1:9" s="14" customFormat="1" ht="45">
+      <c r="J151" s="27"/>
+    </row>
+    <row r="152" spans="1:10" s="14" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A152" s="12">
         <v>31</v>
       </c>
@@ -5184,8 +5359,9 @@
       <c r="I152" s="13">
         <v>49</v>
       </c>
-    </row>
-    <row r="153" spans="1:9" s="14" customFormat="1" ht="45">
+      <c r="J152" s="27"/>
+    </row>
+    <row r="153" spans="1:10" s="14" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A153" s="12">
         <v>31</v>
       </c>
@@ -5213,27 +5389,29 @@
       <c r="I153" s="13">
         <v>49</v>
       </c>
-    </row>
-    <row r="154" spans="1:9" s="14" customFormat="1">
+      <c r="J153" s="27"/>
+    </row>
+    <row r="154" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A154" s="12" t="s">
+        <v>175</v>
+      </c>
+      <c r="B154" s="12" t="s">
         <v>176</v>
-      </c>
-      <c r="B154" s="12" t="s">
-        <v>177</v>
       </c>
       <c r="C154" s="15" t="s">
         <v>118</v>
       </c>
       <c r="D154" s="12" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E154" s="13"/>
       <c r="F154" s="13"/>
       <c r="G154" s="13"/>
       <c r="H154" s="13"/>
       <c r="I154" s="13"/>
-    </row>
-    <row r="155" spans="1:9" s="14" customFormat="1">
+      <c r="J154" s="27"/>
+    </row>
+    <row r="155" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A155" s="12">
         <v>32</v>
       </c>
@@ -5261,8 +5439,9 @@
       <c r="I155" s="13" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="156" spans="1:9" s="14" customFormat="1">
+      <c r="J155" s="27"/>
+    </row>
+    <row r="156" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A156" s="12">
         <v>32</v>
       </c>
@@ -5290,8 +5469,9 @@
       <c r="I156" s="13">
         <v>56</v>
       </c>
-    </row>
-    <row r="157" spans="1:9" s="14" customFormat="1">
+      <c r="J156" s="27"/>
+    </row>
+    <row r="157" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A157" s="12">
         <v>32</v>
       </c>
@@ -5319,8 +5499,9 @@
       <c r="I157" s="13">
         <v>56</v>
       </c>
-    </row>
-    <row r="158" spans="1:9" s="14" customFormat="1" ht="45">
+      <c r="J157" s="27"/>
+    </row>
+    <row r="158" spans="1:10" s="14" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A158" s="12">
         <v>33</v>
       </c>
@@ -5348,13 +5529,14 @@
       <c r="I158" s="13" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="159" spans="1:9" s="14" customFormat="1" ht="30">
+      <c r="J158" s="27"/>
+    </row>
+    <row r="159" spans="1:10" s="14" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A159" s="12">
         <v>33</v>
       </c>
       <c r="B159" s="12" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C159" s="15" t="s">
         <v>124</v>
@@ -5377,13 +5559,14 @@
       <c r="I159" s="13">
         <v>57</v>
       </c>
-    </row>
-    <row r="160" spans="1:9" s="14" customFormat="1" ht="30">
+      <c r="J159" s="27"/>
+    </row>
+    <row r="160" spans="1:10" s="14" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A160" s="12">
         <v>33</v>
       </c>
       <c r="B160" s="12" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C160" s="15" t="s">
         <v>125</v>
@@ -5406,13 +5589,14 @@
       <c r="I160" s="13">
         <v>57</v>
       </c>
-    </row>
-    <row r="161" spans="1:9" s="14" customFormat="1">
+      <c r="J160" s="27"/>
+    </row>
+    <row r="161" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A161" s="13">
         <v>34</v>
       </c>
       <c r="B161" s="13" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C161" s="15" t="s">
         <v>123</v>
@@ -5435,13 +5619,14 @@
       <c r="I161" s="13" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="162" spans="1:9" s="14" customFormat="1">
+      <c r="J161" s="27"/>
+    </row>
+    <row r="162" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A162" s="13">
         <v>34</v>
       </c>
       <c r="B162" s="13" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C162" s="15" t="s">
         <v>124</v>
@@ -5464,13 +5649,14 @@
       <c r="I162" s="13">
         <v>57</v>
       </c>
-    </row>
-    <row r="163" spans="1:9" s="14" customFormat="1">
+      <c r="J162" s="27"/>
+    </row>
+    <row r="163" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A163" s="13">
         <v>34</v>
       </c>
       <c r="B163" s="13" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C163" s="15" t="s">
         <v>125</v>
@@ -5493,13 +5679,14 @@
       <c r="I163" s="13">
         <v>57</v>
       </c>
-    </row>
-    <row r="164" spans="1:9" s="14" customFormat="1" ht="30">
+      <c r="J163" s="27"/>
+    </row>
+    <row r="164" spans="1:10" s="14" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A164" s="13">
         <v>35</v>
       </c>
       <c r="B164" s="13" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C164" s="15" t="s">
         <v>123</v>
@@ -5522,13 +5709,14 @@
       <c r="I164" s="13" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="165" spans="1:9" s="14" customFormat="1" ht="30">
+      <c r="J164" s="27"/>
+    </row>
+    <row r="165" spans="1:10" s="14" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A165" s="13">
         <v>35</v>
       </c>
       <c r="B165" s="13" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C165" s="15" t="s">
         <v>124</v>
@@ -5551,13 +5739,14 @@
       <c r="I165" s="13">
         <v>58</v>
       </c>
-    </row>
-    <row r="166" spans="1:9" s="14" customFormat="1" ht="30">
+      <c r="J165" s="27"/>
+    </row>
+    <row r="166" spans="1:10" s="14" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A166" s="13">
         <v>35</v>
       </c>
       <c r="B166" s="13" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C166" s="15" t="s">
         <v>125</v>
@@ -5580,112 +5769,117 @@
       <c r="I166" s="13">
         <v>58</v>
       </c>
-    </row>
-    <row r="167" spans="1:9" s="14" customFormat="1" ht="30">
+      <c r="J166" s="27"/>
+    </row>
+    <row r="167" spans="1:10" s="14" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A167" s="13">
         <v>35</v>
       </c>
       <c r="B167" s="13" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C167" s="15" t="s">
         <v>124</v>
       </c>
       <c r="D167" s="13" t="s">
+        <v>129</v>
+      </c>
+      <c r="E167" s="13">
+        <v>14</v>
+      </c>
+      <c r="F167" s="13">
+        <v>2</v>
+      </c>
+      <c r="G167" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="H167" s="13" t="s">
         <v>130</v>
-      </c>
-      <c r="E167" s="13">
-        <v>14</v>
-      </c>
-      <c r="F167" s="13">
-        <v>2</v>
-      </c>
-      <c r="G167" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="H167" s="13" t="s">
-        <v>131</v>
       </c>
       <c r="I167" s="13">
         <v>58</v>
       </c>
-    </row>
-    <row r="168" spans="1:9" s="14" customFormat="1" ht="30">
+      <c r="J167" s="27"/>
+    </row>
+    <row r="168" spans="1:10" s="14" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A168" s="13">
         <v>35</v>
       </c>
       <c r="B168" s="13" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C168" s="15" t="s">
         <v>125</v>
       </c>
       <c r="D168" s="13" t="s">
+        <v>129</v>
+      </c>
+      <c r="E168" s="13">
+        <v>14</v>
+      </c>
+      <c r="F168" s="13">
+        <v>2</v>
+      </c>
+      <c r="G168" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="H168" s="13" t="s">
         <v>130</v>
-      </c>
-      <c r="E168" s="13">
-        <v>14</v>
-      </c>
-      <c r="F168" s="13">
-        <v>2</v>
-      </c>
-      <c r="G168" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="H168" s="13" t="s">
-        <v>131</v>
       </c>
       <c r="I168" s="13">
         <v>58</v>
       </c>
-    </row>
-    <row r="169" spans="1:9" s="14" customFormat="1">
+      <c r="J168" s="27"/>
+    </row>
+    <row r="169" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A169" s="13" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B169" s="12" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C169" s="15" t="s">
         <v>125</v>
       </c>
       <c r="D169" s="13" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E169" s="13"/>
       <c r="F169" s="13"/>
       <c r="G169" s="13"/>
       <c r="H169" s="13"/>
       <c r="I169" s="13"/>
-    </row>
-    <row r="170" spans="1:9" s="14" customFormat="1" ht="30">
+      <c r="J169" s="27"/>
+    </row>
+    <row r="170" spans="1:10" s="14" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A170" s="13" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B170" s="12" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C170" s="15" t="s">
         <v>124</v>
       </c>
       <c r="D170" s="13" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E170" s="13"/>
       <c r="F170" s="13"/>
       <c r="G170" s="13"/>
       <c r="H170" s="13"/>
       <c r="I170" s="13"/>
-    </row>
-    <row r="171" spans="1:9" s="14" customFormat="1" ht="30">
+      <c r="J170" s="27"/>
+    </row>
+    <row r="171" spans="1:10" s="14" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A171" s="13">
         <v>36</v>
       </c>
       <c r="B171" s="13" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C171" s="15" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D171" s="13" t="s">
         <v>20</v>
@@ -5705,16 +5899,17 @@
       <c r="I171" s="13" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="172" spans="1:9" s="14" customFormat="1" ht="30">
+      <c r="J171" s="27"/>
+    </row>
+    <row r="172" spans="1:10" s="14" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A172" s="13">
         <v>36</v>
       </c>
       <c r="B172" s="13" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C172" s="15" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D172" s="13" t="s">
         <v>25</v>
@@ -5732,37 +5927,39 @@
         <v>43</v>
       </c>
       <c r="I172" s="13" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="173" spans="1:9" s="14" customFormat="1" ht="30">
+        <v>133</v>
+      </c>
+      <c r="J172" s="27"/>
+    </row>
+    <row r="173" spans="1:10" s="14" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A173" s="13" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B173" s="13" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C173" s="15" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D173" s="13" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E173" s="13"/>
       <c r="F173" s="13"/>
       <c r="G173" s="13"/>
       <c r="H173" s="13"/>
       <c r="I173" s="13"/>
-    </row>
-    <row r="174" spans="1:9" s="14" customFormat="1" ht="30">
+      <c r="J173" s="27"/>
+    </row>
+    <row r="174" spans="1:10" s="14" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A174" s="13">
         <v>37</v>
       </c>
       <c r="B174" s="13" t="s">
+        <v>134</v>
+      </c>
+      <c r="C174" s="15" t="s">
         <v>135</v>
-      </c>
-      <c r="C174" s="15" t="s">
-        <v>136</v>
       </c>
       <c r="D174" s="13" t="s">
         <v>20</v>
@@ -5782,16 +5979,17 @@
       <c r="I174" s="13" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="175" spans="1:9" s="14" customFormat="1" ht="30">
+      <c r="J174" s="27"/>
+    </row>
+    <row r="175" spans="1:10" s="14" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A175" s="13">
         <v>37</v>
       </c>
       <c r="B175" s="13" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C175" s="15" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D175" s="13" t="s">
         <v>25</v>
@@ -5809,18 +6007,19 @@
         <v>53</v>
       </c>
       <c r="I175" s="13" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="176" spans="1:9" s="14" customFormat="1" ht="30">
+        <v>133</v>
+      </c>
+      <c r="J175" s="27"/>
+    </row>
+    <row r="176" spans="1:10" s="14" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A176" s="13">
         <v>37</v>
       </c>
       <c r="B176" s="13" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C176" s="15" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D176" s="13" t="s">
         <v>25</v>
@@ -5838,37 +6037,39 @@
         <v>53</v>
       </c>
       <c r="I176" s="13" t="s">
+        <v>133</v>
+      </c>
+      <c r="J176" s="27"/>
+    </row>
+    <row r="177" spans="1:10" s="14" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A177" s="13" t="s">
+        <v>180</v>
+      </c>
+      <c r="B177" s="13" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="177" spans="1:9" s="14" customFormat="1" ht="30">
-      <c r="A177" s="13" t="s">
-        <v>181</v>
-      </c>
-      <c r="B177" s="13" t="s">
-        <v>135</v>
-      </c>
       <c r="C177" s="15" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D177" s="13" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E177" s="13"/>
       <c r="F177" s="13"/>
       <c r="G177" s="13"/>
       <c r="H177" s="13"/>
       <c r="I177" s="13"/>
-    </row>
-    <row r="178" spans="1:9" s="14" customFormat="1">
+      <c r="J177" s="27"/>
+    </row>
+    <row r="178" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A178" s="13">
         <v>38</v>
       </c>
       <c r="B178" s="13" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C178" s="15" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D178" s="13" t="s">
         <v>20</v>
@@ -5888,16 +6089,17 @@
       <c r="I178" s="13" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="179" spans="1:9" s="14" customFormat="1">
+      <c r="J178" s="27"/>
+    </row>
+    <row r="179" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A179" s="13">
         <v>38</v>
       </c>
       <c r="B179" s="13" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C179" s="15" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D179" s="13" t="s">
         <v>25</v>
@@ -5915,18 +6117,19 @@
         <v>36</v>
       </c>
       <c r="I179" s="13" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="180" spans="1:9" s="14" customFormat="1">
+        <v>133</v>
+      </c>
+      <c r="J179" s="27"/>
+    </row>
+    <row r="180" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A180" s="13">
         <v>38</v>
       </c>
       <c r="B180" s="13" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C180" s="15" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D180" s="13" t="s">
         <v>25</v>
@@ -5944,18 +6147,19 @@
         <v>36</v>
       </c>
       <c r="I180" s="13" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="181" spans="1:9" s="14" customFormat="1" ht="30">
+        <v>133</v>
+      </c>
+      <c r="J180" s="27"/>
+    </row>
+    <row r="181" spans="1:10" s="14" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A181" s="13">
         <v>39</v>
       </c>
       <c r="B181" s="13" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C181" s="15" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D181" s="13" t="s">
         <v>20</v>
@@ -5975,16 +6179,17 @@
       <c r="I181" s="13" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="182" spans="1:9" s="14" customFormat="1" ht="30">
+      <c r="J181" s="27"/>
+    </row>
+    <row r="182" spans="1:10" s="14" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A182" s="13">
         <v>39</v>
       </c>
       <c r="B182" s="13" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C182" s="15" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D182" s="13" t="s">
         <v>25</v>
@@ -6002,18 +6207,19 @@
         <v>43</v>
       </c>
       <c r="I182" s="13" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="183" spans="1:9" s="14" customFormat="1">
+        <v>133</v>
+      </c>
+      <c r="J182" s="27"/>
+    </row>
+    <row r="183" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A183" s="13">
         <v>40</v>
       </c>
       <c r="B183" s="13" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C183" s="15" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D183" s="13" t="s">
         <v>20</v>
@@ -6033,16 +6239,17 @@
       <c r="I183" s="13" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="184" spans="1:9" s="14" customFormat="1">
+      <c r="J183" s="27"/>
+    </row>
+    <row r="184" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A184" s="13">
         <v>40</v>
       </c>
       <c r="B184" s="13" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C184" s="15" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D184" s="13" t="s">
         <v>25</v>
@@ -6062,16 +6269,17 @@
       <c r="I184" s="13">
         <v>57</v>
       </c>
-    </row>
-    <row r="185" spans="1:9" s="14" customFormat="1">
+      <c r="J184" s="27"/>
+    </row>
+    <row r="185" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A185" s="13">
         <v>40</v>
       </c>
       <c r="B185" s="13" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C185" s="15" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D185" s="13" t="s">
         <v>25</v>
@@ -6091,16 +6299,17 @@
       <c r="I185" s="13">
         <v>57</v>
       </c>
-    </row>
-    <row r="186" spans="1:9" s="14" customFormat="1">
+      <c r="J185" s="27"/>
+    </row>
+    <row r="186" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A186" s="13">
         <v>41</v>
       </c>
       <c r="B186" s="13" t="s">
+        <v>140</v>
+      </c>
+      <c r="C186" s="15" t="s">
         <v>141</v>
-      </c>
-      <c r="C186" s="15" t="s">
-        <v>142</v>
       </c>
       <c r="D186" s="13" t="s">
         <v>20</v>
@@ -6120,16 +6329,17 @@
       <c r="I186" s="13" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="187" spans="1:9" s="14" customFormat="1">
+      <c r="J186" s="27"/>
+    </row>
+    <row r="187" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A187" s="13">
         <v>41</v>
       </c>
       <c r="B187" s="13" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C187" s="15" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D187" s="13" t="s">
         <v>25</v>
@@ -6149,16 +6359,17 @@
       <c r="I187" s="13">
         <v>57</v>
       </c>
-    </row>
-    <row r="188" spans="1:9" s="14" customFormat="1">
+      <c r="J187" s="27"/>
+    </row>
+    <row r="188" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A188" s="13">
         <v>41</v>
       </c>
       <c r="B188" s="13" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C188" s="15" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D188" s="13" t="s">
         <v>25</v>
@@ -6178,16 +6389,17 @@
       <c r="I188" s="13">
         <v>49</v>
       </c>
-    </row>
-    <row r="189" spans="1:9" s="14" customFormat="1">
+      <c r="J188" s="27"/>
+    </row>
+    <row r="189" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A189" s="13">
         <v>41</v>
       </c>
       <c r="B189" s="13" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C189" s="15" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D189" s="13" t="s">
         <v>25</v>
@@ -6207,16 +6419,17 @@
       <c r="I189" s="13">
         <v>57</v>
       </c>
-    </row>
-    <row r="190" spans="1:9" s="14" customFormat="1">
+      <c r="J189" s="27"/>
+    </row>
+    <row r="190" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A190" s="13">
         <v>41</v>
       </c>
       <c r="B190" s="13" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C190" s="15" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D190" s="13" t="s">
         <v>25</v>
@@ -6236,16 +6449,17 @@
       <c r="I190" s="13">
         <v>49</v>
       </c>
-    </row>
-    <row r="191" spans="1:9" s="14" customFormat="1">
+      <c r="J190" s="27"/>
+    </row>
+    <row r="191" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A191" s="13">
         <v>42</v>
       </c>
       <c r="B191" s="13" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C191" s="15" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D191" s="13" t="s">
         <v>20</v>
@@ -6265,16 +6479,17 @@
       <c r="I191" s="13" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="192" spans="1:9" s="14" customFormat="1">
+      <c r="J191" s="27"/>
+    </row>
+    <row r="192" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A192" s="13">
         <v>42</v>
       </c>
       <c r="B192" s="13" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C192" s="15" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D192" s="13" t="s">
         <v>25</v>
@@ -6294,16 +6509,17 @@
       <c r="I192" s="13">
         <v>58</v>
       </c>
-    </row>
-    <row r="193" spans="1:9" s="14" customFormat="1">
+      <c r="J192" s="27"/>
+    </row>
+    <row r="193" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A193" s="13">
         <v>42</v>
       </c>
       <c r="B193" s="13" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C193" s="15" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D193" s="13" t="s">
         <v>25</v>
@@ -6323,16 +6539,17 @@
       <c r="I193" s="13">
         <v>58</v>
       </c>
-    </row>
-    <row r="194" spans="1:9" s="14" customFormat="1">
+      <c r="J193" s="27"/>
+    </row>
+    <row r="194" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A194" s="13">
         <v>42</v>
       </c>
       <c r="B194" s="13" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C194" s="15" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D194" s="13" t="s">
         <v>25</v>
@@ -6352,16 +6569,17 @@
       <c r="I194" s="13">
         <v>58</v>
       </c>
-    </row>
-    <row r="195" spans="1:9" s="14" customFormat="1">
+      <c r="J194" s="27"/>
+    </row>
+    <row r="195" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A195" s="13">
         <v>42</v>
       </c>
       <c r="B195" s="13" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C195" s="15" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D195" s="13" t="s">
         <v>25</v>
@@ -6381,16 +6599,17 @@
       <c r="I195" s="13">
         <v>58</v>
       </c>
-    </row>
-    <row r="196" spans="1:9" s="14" customFormat="1" ht="30">
+      <c r="J195" s="27"/>
+    </row>
+    <row r="196" spans="1:10" s="14" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A196" s="13">
         <v>43</v>
       </c>
       <c r="B196" s="13" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C196" s="15" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D196" s="13" t="s">
         <v>20</v>
@@ -6410,16 +6629,17 @@
       <c r="I196" s="13" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="197" spans="1:9" s="14" customFormat="1" ht="30">
+      <c r="J196" s="27"/>
+    </row>
+    <row r="197" spans="1:10" s="14" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A197" s="13">
         <v>43</v>
       </c>
       <c r="B197" s="13" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C197" s="15" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D197" s="13" t="s">
         <v>25</v>
@@ -6437,18 +6657,19 @@
         <v>36</v>
       </c>
       <c r="I197" s="13" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="198" spans="1:9" s="14" customFormat="1" ht="30">
+        <v>133</v>
+      </c>
+      <c r="J197" s="27"/>
+    </row>
+    <row r="198" spans="1:10" s="14" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A198" s="13">
         <v>43</v>
       </c>
       <c r="B198" s="13" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C198" s="15" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D198" s="13" t="s">
         <v>25</v>
@@ -6466,21 +6687,22 @@
         <v>36</v>
       </c>
       <c r="I198" s="13" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="199" spans="1:9" s="14" customFormat="1" ht="30">
+        <v>133</v>
+      </c>
+      <c r="J198" s="27"/>
+    </row>
+    <row r="199" spans="1:10" s="14" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A199" s="13">
         <v>43</v>
       </c>
       <c r="B199" s="13" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C199" s="15" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D199" s="13" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E199" s="13">
         <v>14</v>
@@ -6495,18 +6717,19 @@
         <v>36</v>
       </c>
       <c r="I199" s="13" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="200" spans="1:9" s="14" customFormat="1">
+        <v>133</v>
+      </c>
+      <c r="J199" s="27"/>
+    </row>
+    <row r="200" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A200" s="13">
         <v>44</v>
       </c>
       <c r="B200" s="13" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C200" s="15" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D200" s="13" t="s">
         <v>20</v>
@@ -6524,50 +6747,52 @@
         <v>22</v>
       </c>
       <c r="I200" s="13" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="201" spans="1:9" s="14" customFormat="1">
+        <v>133</v>
+      </c>
+      <c r="J200" s="27"/>
+    </row>
+    <row r="201" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A201" s="13">
         <v>44</v>
       </c>
       <c r="B201" s="13" t="s">
+        <v>146</v>
+      </c>
+      <c r="C201" s="15" t="s">
+        <v>132</v>
+      </c>
+      <c r="D201" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="E201" s="13">
+        <v>14</v>
+      </c>
+      <c r="F201" s="13">
+        <v>1</v>
+      </c>
+      <c r="G201" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="H201" s="13" t="s">
         <v>147</v>
       </c>
-      <c r="C201" s="15" t="s">
+      <c r="I201" s="13" t="s">
         <v>133</v>
       </c>
-      <c r="D201" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="E201" s="13">
-        <v>14</v>
-      </c>
-      <c r="F201" s="13">
-        <v>1</v>
-      </c>
-      <c r="G201" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="H201" s="13" t="s">
-        <v>148</v>
-      </c>
-      <c r="I201" s="13" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="202" spans="1:9" s="14" customFormat="1">
+      <c r="J201" s="27"/>
+    </row>
+    <row r="202" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A202" s="13">
         <v>44</v>
       </c>
       <c r="B202" s="13" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C202" s="15" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D202" s="13" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E202" s="13">
         <v>14</v>
@@ -6582,18 +6807,19 @@
         <v>22</v>
       </c>
       <c r="I202" s="13" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="203" spans="1:9" s="14" customFormat="1">
+        <v>133</v>
+      </c>
+      <c r="J202" s="27"/>
+    </row>
+    <row r="203" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A203" s="13">
         <v>45</v>
       </c>
       <c r="B203" s="13" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C203" s="15" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D203" s="13" t="s">
         <v>20</v>
@@ -6613,16 +6839,17 @@
       <c r="I203" s="13" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="204" spans="1:9" s="14" customFormat="1">
+      <c r="J203" s="27"/>
+    </row>
+    <row r="204" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A204" s="13">
         <v>45</v>
       </c>
       <c r="B204" s="13" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C204" s="15" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D204" s="13" t="s">
         <v>25</v>
@@ -6640,18 +6867,19 @@
         <v>110</v>
       </c>
       <c r="I204" s="13" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="205" spans="1:9" s="14" customFormat="1" ht="30">
+        <v>133</v>
+      </c>
+      <c r="J204" s="27"/>
+    </row>
+    <row r="205" spans="1:10" s="14" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A205" s="13">
         <v>46</v>
       </c>
       <c r="B205" s="13" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C205" s="15" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D205" s="13" t="s">
         <v>20</v>
@@ -6669,18 +6897,19 @@
         <v>22</v>
       </c>
       <c r="I205" s="13" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="206" spans="1:9" s="14" customFormat="1" ht="30">
+        <v>133</v>
+      </c>
+      <c r="J205" s="27"/>
+    </row>
+    <row r="206" spans="1:10" s="14" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A206" s="13">
         <v>46</v>
       </c>
       <c r="B206" s="13" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C206" s="15" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D206" s="13" t="s">
         <v>25</v>
@@ -6695,21 +6924,22 @@
         <v>35</v>
       </c>
       <c r="H206" s="13" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="I206" s="13" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="207" spans="1:9" s="14" customFormat="1">
+        <v>133</v>
+      </c>
+      <c r="J206" s="27"/>
+    </row>
+    <row r="207" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A207" s="13">
         <v>47</v>
       </c>
       <c r="B207" s="13" t="s">
+        <v>150</v>
+      </c>
+      <c r="C207" s="15" t="s">
         <v>151</v>
-      </c>
-      <c r="C207" s="15" t="s">
-        <v>152</v>
       </c>
       <c r="D207" s="13" t="s">
         <v>20</v>
@@ -6729,16 +6959,17 @@
       <c r="I207" s="13" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="208" spans="1:9" s="14" customFormat="1">
+      <c r="J207" s="27"/>
+    </row>
+    <row r="208" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A208" s="13">
         <v>47</v>
       </c>
       <c r="B208" s="13" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C208" s="15" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D208" s="13" t="s">
         <v>25</v>
@@ -6758,16 +6989,17 @@
       <c r="I208" s="13">
         <v>58</v>
       </c>
-    </row>
-    <row r="209" spans="1:9" s="14" customFormat="1">
+      <c r="J208" s="27"/>
+    </row>
+    <row r="209" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A209" s="13">
         <v>47</v>
       </c>
       <c r="B209" s="13" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C209" s="15" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D209" s="13" t="s">
         <v>25</v>
@@ -6787,16 +7019,17 @@
       <c r="I209" s="13">
         <v>58</v>
       </c>
-    </row>
-    <row r="210" spans="1:9" s="14" customFormat="1">
+      <c r="J209" s="27"/>
+    </row>
+    <row r="210" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A210" s="13">
         <v>48</v>
       </c>
       <c r="B210" s="13" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C210" s="15" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D210" s="13" t="s">
         <v>20</v>
@@ -6816,16 +7049,17 @@
       <c r="I210" s="13" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="211" spans="1:9" s="14" customFormat="1">
+      <c r="J210" s="27"/>
+    </row>
+    <row r="211" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A211" s="13">
         <v>48</v>
       </c>
       <c r="B211" s="13" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C211" s="15" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D211" s="13" t="s">
         <v>25</v>
@@ -6845,16 +7079,17 @@
       <c r="I211" s="13">
         <v>58</v>
       </c>
-    </row>
-    <row r="212" spans="1:9" s="14" customFormat="1">
+      <c r="J211" s="27"/>
+    </row>
+    <row r="212" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A212" s="13">
         <v>48</v>
       </c>
       <c r="B212" s="13" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C212" s="15" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D212" s="13" t="s">
         <v>25</v>
@@ -6874,35 +7109,37 @@
       <c r="I212" s="13">
         <v>58</v>
       </c>
-    </row>
-    <row r="213" spans="1:9" s="14" customFormat="1">
+      <c r="J212" s="27"/>
+    </row>
+    <row r="213" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A213" s="13" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B213" s="13" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C213" s="15" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D213" s="13" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E213" s="13"/>
       <c r="F213" s="13"/>
       <c r="G213" s="13"/>
       <c r="H213" s="13"/>
       <c r="I213" s="13"/>
-    </row>
-    <row r="214" spans="1:9" s="14" customFormat="1">
+      <c r="J213" s="27"/>
+    </row>
+    <row r="214" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A214" s="13">
         <v>49</v>
       </c>
       <c r="B214" s="13" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C214" s="15" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D214" s="13" t="s">
         <v>20</v>
@@ -6920,18 +7157,19 @@
         <v>36</v>
       </c>
       <c r="I214" s="13" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="215" spans="1:9" s="14" customFormat="1">
+        <v>133</v>
+      </c>
+      <c r="J214" s="27"/>
+    </row>
+    <row r="215" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A215" s="13">
         <v>49</v>
       </c>
       <c r="B215" s="13" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C215" s="15" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D215" s="13" t="s">
         <v>25</v>
@@ -6949,18 +7187,19 @@
         <v>36</v>
       </c>
       <c r="I215" s="13" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="216" spans="1:9" s="14" customFormat="1" ht="30">
+        <v>133</v>
+      </c>
+      <c r="J215" s="27"/>
+    </row>
+    <row r="216" spans="1:10" s="14" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A216" s="13">
         <v>50</v>
       </c>
       <c r="B216" s="13" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C216" s="15" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D216" s="13" t="s">
         <v>20</v>
@@ -6978,18 +7217,19 @@
         <v>51</v>
       </c>
       <c r="I216" s="13" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="217" spans="1:9" s="14" customFormat="1" ht="30">
+        <v>133</v>
+      </c>
+      <c r="J216" s="27"/>
+    </row>
+    <row r="217" spans="1:10" s="14" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A217" s="13">
         <v>50</v>
       </c>
       <c r="B217" s="13" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C217" s="15" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D217" s="13" t="s">
         <v>25</v>
@@ -7007,18 +7247,19 @@
         <v>53</v>
       </c>
       <c r="I217" s="13" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="218" spans="1:9" s="14" customFormat="1" ht="30">
+        <v>133</v>
+      </c>
+      <c r="J217" s="27"/>
+    </row>
+    <row r="218" spans="1:10" s="14" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A218" s="13">
         <v>51</v>
       </c>
       <c r="B218" s="13" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C218" s="15" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D218" s="13" t="s">
         <v>20</v>
@@ -7038,16 +7279,17 @@
       <c r="I218" s="13" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="219" spans="1:9" s="14" customFormat="1" ht="30">
+      <c r="J218" s="27"/>
+    </row>
+    <row r="219" spans="1:10" s="14" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A219" s="13">
         <v>51</v>
       </c>
       <c r="B219" s="13" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C219" s="15" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D219" s="13" t="s">
         <v>25</v>
@@ -7067,16 +7309,17 @@
       <c r="I219" s="13">
         <v>57</v>
       </c>
-    </row>
-    <row r="220" spans="1:9" s="14" customFormat="1">
+      <c r="J219" s="27"/>
+    </row>
+    <row r="220" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A220" s="13">
         <v>52</v>
       </c>
       <c r="B220" s="13" t="s">
+        <v>156</v>
+      </c>
+      <c r="C220" s="15" t="s">
         <v>157</v>
-      </c>
-      <c r="C220" s="15" t="s">
-        <v>158</v>
       </c>
       <c r="D220" s="13" t="s">
         <v>20</v>
@@ -7094,21 +7337,22 @@
         <v>98</v>
       </c>
       <c r="I220" s="13" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="221" spans="1:9" s="14" customFormat="1">
+        <v>133</v>
+      </c>
+      <c r="J220" s="27"/>
+    </row>
+    <row r="221" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A221" s="13">
         <v>52</v>
       </c>
       <c r="B221" s="13" t="s">
+        <v>156</v>
+      </c>
+      <c r="C221" s="15" t="s">
         <v>157</v>
       </c>
-      <c r="C221" s="15" t="s">
-        <v>158</v>
-      </c>
       <c r="D221" s="13" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E221" s="13">
         <v>30</v>
@@ -7123,18 +7367,19 @@
         <v>98</v>
       </c>
       <c r="I221" s="13" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="222" spans="1:9" s="14" customFormat="1" ht="30">
+        <v>133</v>
+      </c>
+      <c r="J221" s="27"/>
+    </row>
+    <row r="222" spans="1:10" s="14" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A222" s="13">
         <v>53</v>
       </c>
       <c r="B222" s="13" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C222" s="15" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D222" s="13" t="s">
         <v>20</v>
@@ -7152,21 +7397,22 @@
         <v>51</v>
       </c>
       <c r="I222" s="13" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="223" spans="1:9" s="14" customFormat="1" ht="30">
+        <v>133</v>
+      </c>
+      <c r="J222" s="27"/>
+    </row>
+    <row r="223" spans="1:10" s="14" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A223" s="13">
         <v>53</v>
       </c>
       <c r="B223" s="13" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C223" s="15" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D223" s="13" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E223" s="13">
         <v>44</v>
@@ -7181,18 +7427,19 @@
         <v>51</v>
       </c>
       <c r="I223" s="13" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="224" spans="1:9" s="14" customFormat="1">
+        <v>133</v>
+      </c>
+      <c r="J223" s="27"/>
+    </row>
+    <row r="224" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A224" s="13">
         <v>54</v>
       </c>
       <c r="B224" s="13" t="s">
+        <v>159</v>
+      </c>
+      <c r="C224" s="15" t="s">
         <v>160</v>
-      </c>
-      <c r="C224" s="15" t="s">
-        <v>161</v>
       </c>
       <c r="D224" s="13" t="s">
         <v>20</v>
@@ -7210,21 +7457,22 @@
         <v>57</v>
       </c>
       <c r="I224" s="13" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="225" spans="1:9" s="14" customFormat="1">
+        <v>133</v>
+      </c>
+      <c r="J224" s="27"/>
+    </row>
+    <row r="225" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A225" s="13">
         <v>54</v>
       </c>
       <c r="B225" s="13" t="s">
+        <v>159</v>
+      </c>
+      <c r="C225" s="15" t="s">
         <v>160</v>
       </c>
-      <c r="C225" s="15" t="s">
-        <v>161</v>
-      </c>
       <c r="D225" s="13" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E225" s="13">
         <v>30</v>
@@ -7239,62 +7487,67 @@
         <v>57</v>
       </c>
       <c r="I225" s="13" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="228" spans="1:9" s="9" customFormat="1" ht="18.75">
+        <v>133</v>
+      </c>
+      <c r="J225" s="27"/>
+    </row>
+    <row r="228" spans="1:10" s="9" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A228" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="H228" s="23" t="s">
+      <c r="H228" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="I228" s="23"/>
-    </row>
-    <row r="229" spans="1:9" ht="12.95" customHeight="1">
-      <c r="H229" s="24" t="s">
+      <c r="I228" s="25"/>
+      <c r="J228" s="25"/>
+    </row>
+    <row r="229" spans="1:10" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H229" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="I229" s="24"/>
-    </row>
-    <row r="231" spans="1:9">
-      <c r="A231" s="16" t="s">
+      <c r="I229" s="26"/>
+      <c r="J229" s="26"/>
+    </row>
+    <row r="231" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A231" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="B231" s="16"/>
-      <c r="C231" s="16"/>
-      <c r="D231" s="16"/>
-      <c r="E231" s="16"/>
-      <c r="F231" s="16"/>
-      <c r="G231" s="16"/>
-      <c r="H231" s="16"/>
-      <c r="I231" s="16"/>
-    </row>
-    <row r="232" spans="1:9">
-      <c r="A232" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="B232" s="16"/>
-      <c r="C232" s="16"/>
-      <c r="D232" s="16"/>
-      <c r="E232" s="16"/>
-      <c r="F232" s="16"/>
-      <c r="G232" s="16"/>
-      <c r="H232" s="16"/>
-      <c r="I232" s="16"/>
+      <c r="B231" s="18"/>
+      <c r="C231" s="18"/>
+      <c r="D231" s="18"/>
+      <c r="E231" s="18"/>
+      <c r="F231" s="18"/>
+      <c r="G231" s="18"/>
+      <c r="H231" s="18"/>
+      <c r="I231" s="18"/>
+      <c r="J231" s="18"/>
+    </row>
+    <row r="232" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A232" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="B232" s="18"/>
+      <c r="C232" s="18"/>
+      <c r="D232" s="18"/>
+      <c r="E232" s="18"/>
+      <c r="F232" s="18"/>
+      <c r="G232" s="18"/>
+      <c r="H232" s="18"/>
+      <c r="I232" s="18"/>
+      <c r="J232" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="10">
-    <mergeCell ref="A232:I232"/>
-    <mergeCell ref="A2:I2"/>
-    <mergeCell ref="A4:I4"/>
-    <mergeCell ref="A6:I6"/>
-    <mergeCell ref="A8:I8"/>
-    <mergeCell ref="A10:I10"/>
-    <mergeCell ref="H228:I228"/>
-    <mergeCell ref="H229:I229"/>
-    <mergeCell ref="B11:I11"/>
-    <mergeCell ref="A231:I231"/>
+    <mergeCell ref="A232:J232"/>
+    <mergeCell ref="A2:J2"/>
+    <mergeCell ref="A4:J4"/>
+    <mergeCell ref="A6:J6"/>
+    <mergeCell ref="A8:J8"/>
+    <mergeCell ref="A10:J10"/>
+    <mergeCell ref="H228:J228"/>
+    <mergeCell ref="H229:J229"/>
+    <mergeCell ref="B11:J11"/>
+    <mergeCell ref="A231:J231"/>
   </mergeCells>
   <phoneticPr fontId="13" type="noConversion"/>
   <printOptions horizontalCentered="1"/>

--- a/data/Програмних_засобів_26-12-19_Форма 44_ ВIДОМIСТЬ ДОРУЧЕНЬ - 2020.xlsx
+++ b/data/Програмних_засобів_26-12-19_Форма 44_ ВIДОМIСТЬ ДОРУЧЕНЬ - 2020.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1136" uniqueCount="186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1136" uniqueCount="187">
   <si>
     <t>МІНІСТЕРСТВО ОСВІТИ І НАУКИ УКРАЇНИ</t>
   </si>
@@ -579,6 +579,9 @@
   </si>
   <si>
     <t>КАФЕДРА_____________програмних засобів_______________________________________________</t>
+  </si>
+  <si>
+    <t>Пропозиції щодо аудиторій</t>
   </si>
 </sst>
 </file>
@@ -791,6 +794,15 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -817,15 +829,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1097,7 +1100,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1108,7 +1111,7 @@
   <dimension ref="A1:N232"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="70" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13:J14"/>
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1135,33 +1138,33 @@
       <c r="N1" s="10"/>
     </row>
     <row r="2" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A2" s="19" t="s">
+      <c r="A2" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="19"/>
-      <c r="C2" s="19"/>
-      <c r="D2" s="19"/>
-      <c r="E2" s="19"/>
-      <c r="F2" s="19"/>
-      <c r="G2" s="19"/>
-      <c r="H2" s="19"/>
-      <c r="I2" s="19"/>
-      <c r="J2" s="19"/>
+      <c r="B2" s="22"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="22"/>
+      <c r="H2" s="22"/>
+      <c r="I2" s="22"/>
+      <c r="J2" s="22"/>
     </row>
     <row r="3" spans="1:14" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="4" spans="1:14" ht="30" x14ac:dyDescent="0.4">
-      <c r="A4" s="20" t="s">
+      <c r="A4" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="20"/>
-      <c r="C4" s="20"/>
-      <c r="D4" s="20"/>
-      <c r="E4" s="20"/>
-      <c r="F4" s="20"/>
-      <c r="G4" s="20"/>
-      <c r="H4" s="20"/>
-      <c r="I4" s="20"/>
-      <c r="J4" s="20"/>
+      <c r="B4" s="23"/>
+      <c r="C4" s="23"/>
+      <c r="D4" s="23"/>
+      <c r="E4" s="23"/>
+      <c r="F4" s="23"/>
+      <c r="G4" s="23"/>
+      <c r="H4" s="23"/>
+      <c r="I4" s="23"/>
+      <c r="J4" s="23"/>
     </row>
     <row r="5" spans="1:14" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="2"/>
@@ -1176,18 +1179,18 @@
       <c r="J5" s="2"/>
     </row>
     <row r="6" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A6" s="21" t="s">
+      <c r="A6" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="21"/>
-      <c r="C6" s="21"/>
-      <c r="D6" s="21"/>
-      <c r="E6" s="21"/>
-      <c r="F6" s="21"/>
-      <c r="G6" s="21"/>
-      <c r="H6" s="21"/>
-      <c r="I6" s="21"/>
-      <c r="J6" s="21"/>
+      <c r="B6" s="24"/>
+      <c r="C6" s="24"/>
+      <c r="D6" s="24"/>
+      <c r="E6" s="24"/>
+      <c r="F6" s="24"/>
+      <c r="G6" s="24"/>
+      <c r="H6" s="24"/>
+      <c r="I6" s="24"/>
+      <c r="J6" s="24"/>
     </row>
     <row r="7" spans="1:14" ht="8.85" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3"/>
@@ -1202,18 +1205,18 @@
       <c r="J7" s="3"/>
     </row>
     <row r="8" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="22" t="s">
+      <c r="A8" s="25" t="s">
         <v>183</v>
       </c>
-      <c r="B8" s="22"/>
-      <c r="C8" s="22"/>
-      <c r="D8" s="22"/>
-      <c r="E8" s="22"/>
-      <c r="F8" s="22"/>
-      <c r="G8" s="22"/>
-      <c r="H8" s="22"/>
-      <c r="I8" s="22"/>
-      <c r="J8" s="22"/>
+      <c r="B8" s="25"/>
+      <c r="C8" s="25"/>
+      <c r="D8" s="25"/>
+      <c r="E8" s="25"/>
+      <c r="F8" s="25"/>
+      <c r="G8" s="25"/>
+      <c r="H8" s="25"/>
+      <c r="I8" s="25"/>
+      <c r="J8" s="25"/>
     </row>
     <row r="9" spans="1:14" ht="11.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3"/>
@@ -1228,32 +1231,32 @@
       <c r="J9" s="3"/>
     </row>
     <row r="10" spans="1:14" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="23" t="s">
+      <c r="A10" s="26" t="s">
         <v>185</v>
       </c>
-      <c r="B10" s="24"/>
-      <c r="C10" s="24"/>
-      <c r="D10" s="24"/>
-      <c r="E10" s="24"/>
-      <c r="F10" s="24"/>
-      <c r="G10" s="24"/>
-      <c r="H10" s="24"/>
-      <c r="I10" s="24"/>
-      <c r="J10" s="24"/>
+      <c r="B10" s="27"/>
+      <c r="C10" s="27"/>
+      <c r="D10" s="27"/>
+      <c r="E10" s="27"/>
+      <c r="F10" s="27"/>
+      <c r="G10" s="27"/>
+      <c r="H10" s="27"/>
+      <c r="I10" s="27"/>
+      <c r="J10" s="27"/>
     </row>
     <row r="11" spans="1:14" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A11" s="4"/>
-      <c r="B11" s="23" t="s">
+      <c r="B11" s="26" t="s">
         <v>184</v>
       </c>
-      <c r="C11" s="23"/>
-      <c r="D11" s="23"/>
-      <c r="E11" s="23"/>
-      <c r="F11" s="23"/>
-      <c r="G11" s="23"/>
-      <c r="H11" s="23"/>
-      <c r="I11" s="23"/>
-      <c r="J11" s="23"/>
+      <c r="C11" s="26"/>
+      <c r="D11" s="26"/>
+      <c r="E11" s="26"/>
+      <c r="F11" s="26"/>
+      <c r="G11" s="26"/>
+      <c r="H11" s="26"/>
+      <c r="I11" s="26"/>
+      <c r="J11" s="26"/>
     </row>
     <row r="12" spans="1:14" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A12" s="4"/>
@@ -1293,9 +1296,9 @@
         <v>15</v>
       </c>
       <c r="I13" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="J13" s="28" t="s">
+        <v>186</v>
+      </c>
+      <c r="J13" s="19" t="s">
         <v>13</v>
       </c>
     </row>
@@ -1327,7 +1330,7 @@
       <c r="I14" s="8">
         <v>9</v>
       </c>
-      <c r="J14" s="29">
+      <c r="J14" s="20">
         <v>10</v>
       </c>
     </row>
@@ -1359,7 +1362,7 @@
       <c r="I15" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="J15" s="27"/>
+      <c r="J15" s="18"/>
     </row>
     <row r="16" spans="1:14" s="14" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A16" s="12">
@@ -1389,7 +1392,7 @@
       <c r="I16" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="J16" s="27"/>
+      <c r="J16" s="18"/>
     </row>
     <row r="17" spans="1:10" s="14" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" s="12">
@@ -1419,7 +1422,7 @@
       <c r="I17" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="J17" s="27"/>
+      <c r="J17" s="18"/>
     </row>
     <row r="18" spans="1:10" s="14" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A18" s="12">
@@ -1449,7 +1452,7 @@
       <c r="I18" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="J18" s="27"/>
+      <c r="J18" s="18"/>
     </row>
     <row r="19" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="12">
@@ -1479,7 +1482,7 @@
       <c r="I19" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="J19" s="27"/>
+      <c r="J19" s="18"/>
     </row>
     <row r="20" spans="1:10" s="14" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A20" s="12">
@@ -1509,7 +1512,7 @@
       <c r="I20" s="13">
         <v>49.57</v>
       </c>
-      <c r="J20" s="27"/>
+      <c r="J20" s="18"/>
     </row>
     <row r="21" spans="1:10" s="14" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A21" s="12">
@@ -1539,7 +1542,7 @@
       <c r="I21" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="J21" s="27"/>
+      <c r="J21" s="18"/>
     </row>
     <row r="22" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="12">
@@ -1569,7 +1572,7 @@
       <c r="I22" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="J22" s="27"/>
+      <c r="J22" s="18"/>
     </row>
     <row r="23" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="12">
@@ -1599,7 +1602,7 @@
       <c r="I23" s="13">
         <v>49</v>
       </c>
-      <c r="J23" s="27"/>
+      <c r="J23" s="18"/>
     </row>
     <row r="24" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="12">
@@ -1629,7 +1632,7 @@
       <c r="I24" s="13">
         <v>49</v>
       </c>
-      <c r="J24" s="27"/>
+      <c r="J24" s="18"/>
     </row>
     <row r="25" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="12">
@@ -1659,7 +1662,7 @@
       <c r="I25" s="13">
         <v>49</v>
       </c>
-      <c r="J25" s="27"/>
+      <c r="J25" s="18"/>
     </row>
     <row r="26" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="12">
@@ -1689,7 +1692,7 @@
       <c r="I26" s="13">
         <v>49</v>
       </c>
-      <c r="J26" s="27"/>
+      <c r="J26" s="18"/>
     </row>
     <row r="27" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="12">
@@ -1719,7 +1722,7 @@
       <c r="I27" s="13">
         <v>49</v>
       </c>
-      <c r="J27" s="27"/>
+      <c r="J27" s="18"/>
     </row>
     <row r="28" spans="1:10" s="14" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A28" s="12">
@@ -1749,7 +1752,7 @@
       <c r="I28" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="J28" s="27"/>
+      <c r="J28" s="18"/>
     </row>
     <row r="29" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="12">
@@ -1779,7 +1782,7 @@
       <c r="I29" s="13">
         <v>56</v>
       </c>
-      <c r="J29" s="27"/>
+      <c r="J29" s="18"/>
     </row>
     <row r="30" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="12">
@@ -1809,7 +1812,7 @@
       <c r="I30" s="13">
         <v>56</v>
       </c>
-      <c r="J30" s="27"/>
+      <c r="J30" s="18"/>
     </row>
     <row r="31" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="12">
@@ -1839,7 +1842,7 @@
       <c r="I31" s="13">
         <v>58</v>
       </c>
-      <c r="J31" s="27"/>
+      <c r="J31" s="18"/>
     </row>
     <row r="32" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="12">
@@ -1869,7 +1872,7 @@
       <c r="I32" s="13">
         <v>58</v>
       </c>
-      <c r="J32" s="27"/>
+      <c r="J32" s="18"/>
     </row>
     <row r="33" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="12">
@@ -1899,7 +1902,7 @@
       <c r="I33" s="13">
         <v>58</v>
       </c>
-      <c r="J33" s="27"/>
+      <c r="J33" s="18"/>
     </row>
     <row r="34" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="12">
@@ -1929,7 +1932,7 @@
       <c r="I34" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="J34" s="27"/>
+      <c r="J34" s="18"/>
     </row>
     <row r="35" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="12">
@@ -1959,7 +1962,7 @@
       <c r="I35" s="13">
         <v>57</v>
       </c>
-      <c r="J35" s="27"/>
+      <c r="J35" s="18"/>
     </row>
     <row r="36" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="12">
@@ -1989,7 +1992,7 @@
       <c r="I36" s="13">
         <v>57</v>
       </c>
-      <c r="J36" s="27"/>
+      <c r="J36" s="18"/>
     </row>
     <row r="37" spans="1:10" s="14" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A37" s="12">
@@ -2019,7 +2022,7 @@
       <c r="I37" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="J37" s="27"/>
+      <c r="J37" s="18"/>
     </row>
     <row r="38" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="12">
@@ -2049,7 +2052,7 @@
       <c r="I38" s="13">
         <v>57</v>
       </c>
-      <c r="J38" s="27"/>
+      <c r="J38" s="18"/>
     </row>
     <row r="39" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="12">
@@ -2079,7 +2082,7 @@
       <c r="I39" s="13">
         <v>57</v>
       </c>
-      <c r="J39" s="27"/>
+      <c r="J39" s="18"/>
     </row>
     <row r="40" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="12">
@@ -2109,7 +2112,7 @@
       <c r="I40" s="13">
         <v>57</v>
       </c>
-      <c r="J40" s="27"/>
+      <c r="J40" s="18"/>
     </row>
     <row r="41" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="12">
@@ -2139,7 +2142,7 @@
       <c r="I41" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="J41" s="27"/>
+      <c r="J41" s="18"/>
     </row>
     <row r="42" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42" s="12">
@@ -2169,7 +2172,7 @@
       <c r="I42" s="13">
         <v>49</v>
       </c>
-      <c r="J42" s="27"/>
+      <c r="J42" s="18"/>
     </row>
     <row r="43" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="12">
@@ -2199,7 +2202,7 @@
       <c r="I43" s="13">
         <v>49</v>
       </c>
-      <c r="J43" s="27"/>
+      <c r="J43" s="18"/>
     </row>
     <row r="44" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" s="12">
@@ -2229,7 +2232,7 @@
       <c r="I44" s="13">
         <v>49</v>
       </c>
-      <c r="J44" s="27"/>
+      <c r="J44" s="18"/>
     </row>
     <row r="45" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A45" s="12">
@@ -2259,7 +2262,7 @@
       <c r="I45" s="13">
         <v>49</v>
       </c>
-      <c r="J45" s="27"/>
+      <c r="J45" s="18"/>
     </row>
     <row r="46" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A46" s="12">
@@ -2289,7 +2292,7 @@
       <c r="I46" s="13">
         <v>49</v>
       </c>
-      <c r="J46" s="27"/>
+      <c r="J46" s="18"/>
     </row>
     <row r="47" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A47" s="12">
@@ -2319,7 +2322,7 @@
       <c r="I47" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="J47" s="27"/>
+      <c r="J47" s="18"/>
     </row>
     <row r="48" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A48" s="12">
@@ -2349,7 +2352,7 @@
       <c r="I48" s="13">
         <v>57</v>
       </c>
-      <c r="J48" s="27"/>
+      <c r="J48" s="18"/>
     </row>
     <row r="49" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A49" s="12">
@@ -2379,7 +2382,7 @@
       <c r="I49" s="13">
         <v>57</v>
       </c>
-      <c r="J49" s="27"/>
+      <c r="J49" s="18"/>
     </row>
     <row r="50" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A50" s="12">
@@ -2409,7 +2412,7 @@
       <c r="I50" s="13">
         <v>57</v>
       </c>
-      <c r="J50" s="27"/>
+      <c r="J50" s="18"/>
     </row>
     <row r="51" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A51" s="12">
@@ -2439,7 +2442,7 @@
       <c r="I51" s="13">
         <v>57</v>
       </c>
-      <c r="J51" s="27"/>
+      <c r="J51" s="18"/>
     </row>
     <row r="52" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A52" s="12">
@@ -2469,7 +2472,7 @@
       <c r="I52" s="13">
         <v>57</v>
       </c>
-      <c r="J52" s="27"/>
+      <c r="J52" s="18"/>
     </row>
     <row r="53" spans="1:10" s="14" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A53" s="12">
@@ -2499,7 +2502,7 @@
       <c r="I53" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="J53" s="27"/>
+      <c r="J53" s="18"/>
     </row>
     <row r="54" spans="1:10" s="14" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A54" s="12">
@@ -2529,7 +2532,7 @@
       <c r="I54" s="13">
         <v>49</v>
       </c>
-      <c r="J54" s="27"/>
+      <c r="J54" s="18"/>
     </row>
     <row r="55" spans="1:10" s="14" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A55" s="12">
@@ -2559,7 +2562,7 @@
       <c r="I55" s="13">
         <v>49</v>
       </c>
-      <c r="J55" s="27"/>
+      <c r="J55" s="18"/>
     </row>
     <row r="56" spans="1:10" s="14" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A56" s="12">
@@ -2589,7 +2592,7 @@
       <c r="I56" s="13">
         <v>49</v>
       </c>
-      <c r="J56" s="27"/>
+      <c r="J56" s="18"/>
     </row>
     <row r="57" spans="1:10" s="14" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A57" s="12">
@@ -2619,7 +2622,7 @@
       <c r="I57" s="13">
         <v>49</v>
       </c>
-      <c r="J57" s="27"/>
+      <c r="J57" s="18"/>
     </row>
     <row r="58" spans="1:10" s="14" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A58" s="12">
@@ -2649,7 +2652,7 @@
       <c r="I58" s="13">
         <v>49</v>
       </c>
-      <c r="J58" s="27"/>
+      <c r="J58" s="18"/>
     </row>
     <row r="59" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A59" s="12">
@@ -2679,7 +2682,7 @@
       <c r="I59" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="J59" s="27"/>
+      <c r="J59" s="18"/>
     </row>
     <row r="60" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A60" s="12">
@@ -2709,7 +2712,7 @@
       <c r="I60" s="13">
         <v>57</v>
       </c>
-      <c r="J60" s="27"/>
+      <c r="J60" s="18"/>
     </row>
     <row r="61" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A61" s="12">
@@ -2739,7 +2742,7 @@
       <c r="I61" s="13">
         <v>57</v>
       </c>
-      <c r="J61" s="27"/>
+      <c r="J61" s="18"/>
     </row>
     <row r="62" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A62" s="12">
@@ -2769,7 +2772,7 @@
       <c r="I62" s="13">
         <v>57</v>
       </c>
-      <c r="J62" s="27"/>
+      <c r="J62" s="18"/>
     </row>
     <row r="63" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A63" s="12">
@@ -2799,7 +2802,7 @@
       <c r="I63" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="J63" s="27"/>
+      <c r="J63" s="18"/>
     </row>
     <row r="64" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A64" s="12">
@@ -2829,7 +2832,7 @@
       <c r="I64" s="13">
         <v>58</v>
       </c>
-      <c r="J64" s="27"/>
+      <c r="J64" s="18"/>
     </row>
     <row r="65" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A65" s="12">
@@ -2859,7 +2862,7 @@
       <c r="I65" s="13">
         <v>58</v>
       </c>
-      <c r="J65" s="27"/>
+      <c r="J65" s="18"/>
     </row>
     <row r="66" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A66" s="12">
@@ -2889,7 +2892,7 @@
       <c r="I66" s="13">
         <v>58</v>
       </c>
-      <c r="J66" s="27"/>
+      <c r="J66" s="18"/>
     </row>
     <row r="67" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A67" s="12">
@@ -2919,7 +2922,7 @@
       <c r="I67" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="J67" s="27"/>
+      <c r="J67" s="18"/>
     </row>
     <row r="68" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A68" s="12">
@@ -2949,7 +2952,7 @@
       <c r="I68" s="13">
         <v>58</v>
       </c>
-      <c r="J68" s="27"/>
+      <c r="J68" s="18"/>
     </row>
     <row r="69" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A69" s="12">
@@ -2979,7 +2982,7 @@
       <c r="I69" s="13">
         <v>58</v>
       </c>
-      <c r="J69" s="27"/>
+      <c r="J69" s="18"/>
     </row>
     <row r="70" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A70" s="12" t="s">
@@ -2999,7 +3002,7 @@
       <c r="G70" s="13"/>
       <c r="H70" s="13"/>
       <c r="I70" s="13"/>
-      <c r="J70" s="27"/>
+      <c r="J70" s="18"/>
     </row>
     <row r="71" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A71" s="12" t="s">
@@ -3019,7 +3022,7 @@
       <c r="G71" s="13"/>
       <c r="H71" s="13"/>
       <c r="I71" s="13"/>
-      <c r="J71" s="27"/>
+      <c r="J71" s="18"/>
     </row>
     <row r="72" spans="1:10" s="14" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A72" s="12">
@@ -3049,7 +3052,7 @@
       <c r="I72" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="J72" s="27"/>
+      <c r="J72" s="18"/>
     </row>
     <row r="73" spans="1:10" s="14" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A73" s="12">
@@ -3079,7 +3082,7 @@
       <c r="I73" s="13">
         <v>56</v>
       </c>
-      <c r="J73" s="27"/>
+      <c r="J73" s="18"/>
     </row>
     <row r="74" spans="1:10" s="14" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A74" s="12">
@@ -3109,7 +3112,7 @@
       <c r="I74" s="13">
         <v>56</v>
       </c>
-      <c r="J74" s="27"/>
+      <c r="J74" s="18"/>
     </row>
     <row r="75" spans="1:10" s="14" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A75" s="12">
@@ -3139,7 +3142,7 @@
       <c r="I75" s="13">
         <v>56</v>
       </c>
-      <c r="J75" s="27"/>
+      <c r="J75" s="18"/>
     </row>
     <row r="76" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A76" s="12">
@@ -3169,7 +3172,7 @@
       <c r="I76" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="J76" s="27"/>
+      <c r="J76" s="18"/>
     </row>
     <row r="77" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A77" s="12">
@@ -3199,7 +3202,7 @@
       <c r="I77" s="13">
         <v>56</v>
       </c>
-      <c r="J77" s="27"/>
+      <c r="J77" s="18"/>
     </row>
     <row r="78" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A78" s="12">
@@ -3229,7 +3232,7 @@
       <c r="I78" s="13">
         <v>56</v>
       </c>
-      <c r="J78" s="27"/>
+      <c r="J78" s="18"/>
     </row>
     <row r="79" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A79" s="12">
@@ -3259,7 +3262,7 @@
       <c r="I79" s="13">
         <v>56</v>
       </c>
-      <c r="J79" s="27"/>
+      <c r="J79" s="18"/>
     </row>
     <row r="80" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A80" s="12">
@@ -3289,7 +3292,7 @@
       <c r="I80" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="J80" s="27"/>
+      <c r="J80" s="18"/>
     </row>
     <row r="81" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A81" s="12">
@@ -3319,7 +3322,7 @@
       <c r="I81" s="13">
         <v>49</v>
       </c>
-      <c r="J81" s="27"/>
+      <c r="J81" s="18"/>
     </row>
     <row r="82" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A82" s="12">
@@ -3349,7 +3352,7 @@
       <c r="I82" s="13">
         <v>49</v>
       </c>
-      <c r="J82" s="27"/>
+      <c r="J82" s="18"/>
     </row>
     <row r="83" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A83" s="12">
@@ -3379,7 +3382,7 @@
       <c r="I83" s="13">
         <v>49</v>
       </c>
-      <c r="J83" s="27"/>
+      <c r="J83" s="18"/>
     </row>
     <row r="84" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A84" s="12">
@@ -3409,7 +3412,7 @@
       <c r="I84" s="13">
         <v>49</v>
       </c>
-      <c r="J84" s="27"/>
+      <c r="J84" s="18"/>
     </row>
     <row r="85" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A85" s="12">
@@ -3439,7 +3442,7 @@
       <c r="I85" s="13">
         <v>49</v>
       </c>
-      <c r="J85" s="27"/>
+      <c r="J85" s="18"/>
     </row>
     <row r="86" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A86" s="12">
@@ -3469,7 +3472,7 @@
       <c r="I86" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="J86" s="27"/>
+      <c r="J86" s="18"/>
     </row>
     <row r="87" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A87" s="12">
@@ -3499,7 +3502,7 @@
       <c r="I87" s="13">
         <v>56</v>
       </c>
-      <c r="J87" s="27"/>
+      <c r="J87" s="18"/>
     </row>
     <row r="88" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A88" s="12">
@@ -3529,7 +3532,7 @@
       <c r="I88" s="13">
         <v>56</v>
       </c>
-      <c r="J88" s="27"/>
+      <c r="J88" s="18"/>
     </row>
     <row r="89" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A89" s="12">
@@ -3559,7 +3562,7 @@
       <c r="I89" s="13">
         <v>56</v>
       </c>
-      <c r="J89" s="27"/>
+      <c r="J89" s="18"/>
     </row>
     <row r="90" spans="1:10" s="14" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A90" s="12">
@@ -3589,7 +3592,7 @@
       <c r="I90" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="J90" s="27"/>
+      <c r="J90" s="18"/>
     </row>
     <row r="91" spans="1:10" s="14" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A91" s="12">
@@ -3619,7 +3622,7 @@
       <c r="I91" s="13">
         <v>56</v>
       </c>
-      <c r="J91" s="27"/>
+      <c r="J91" s="18"/>
     </row>
     <row r="92" spans="1:10" s="14" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A92" s="12">
@@ -3649,7 +3652,7 @@
       <c r="I92" s="13">
         <v>56</v>
       </c>
-      <c r="J92" s="27"/>
+      <c r="J92" s="18"/>
     </row>
     <row r="93" spans="1:10" s="14" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A93" s="12">
@@ -3679,7 +3682,7 @@
       <c r="I93" s="13">
         <v>56</v>
       </c>
-      <c r="J93" s="27"/>
+      <c r="J93" s="18"/>
     </row>
     <row r="94" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A94" s="12">
@@ -3709,7 +3712,7 @@
       <c r="I94" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="J94" s="27"/>
+      <c r="J94" s="18"/>
     </row>
     <row r="95" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A95" s="12">
@@ -3739,7 +3742,7 @@
       <c r="I95" s="13">
         <v>58</v>
       </c>
-      <c r="J95" s="27"/>
+      <c r="J95" s="18"/>
     </row>
     <row r="96" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A96" s="12">
@@ -3769,7 +3772,7 @@
       <c r="I96" s="13">
         <v>58</v>
       </c>
-      <c r="J96" s="27"/>
+      <c r="J96" s="18"/>
     </row>
     <row r="97" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A97" s="12">
@@ -3799,7 +3802,7 @@
       <c r="I97" s="13">
         <v>58</v>
       </c>
-      <c r="J97" s="27"/>
+      <c r="J97" s="18"/>
     </row>
     <row r="98" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A98" s="12">
@@ -3829,7 +3832,7 @@
       <c r="I98" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="J98" s="27"/>
+      <c r="J98" s="18"/>
     </row>
     <row r="99" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A99" s="12">
@@ -3859,7 +3862,7 @@
       <c r="I99" s="13">
         <v>57</v>
       </c>
-      <c r="J99" s="27"/>
+      <c r="J99" s="18"/>
     </row>
     <row r="100" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A100" s="12">
@@ -3889,7 +3892,7 @@
       <c r="I100" s="13">
         <v>57</v>
       </c>
-      <c r="J100" s="27"/>
+      <c r="J100" s="18"/>
     </row>
     <row r="101" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A101" s="12">
@@ -3919,7 +3922,7 @@
       <c r="I101" s="13">
         <v>57</v>
       </c>
-      <c r="J101" s="27"/>
+      <c r="J101" s="18"/>
     </row>
     <row r="102" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A102" s="12">
@@ -3949,7 +3952,7 @@
       <c r="I102" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="J102" s="27"/>
+      <c r="J102" s="18"/>
     </row>
     <row r="103" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A103" s="12">
@@ -3979,7 +3982,7 @@
       <c r="I103" s="13">
         <v>49</v>
       </c>
-      <c r="J103" s="27"/>
+      <c r="J103" s="18"/>
     </row>
     <row r="104" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A104" s="12">
@@ -4009,7 +4012,7 @@
       <c r="I104" s="13">
         <v>49</v>
       </c>
-      <c r="J104" s="27"/>
+      <c r="J104" s="18"/>
     </row>
     <row r="105" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A105" s="12">
@@ -4039,7 +4042,7 @@
       <c r="I105" s="13">
         <v>49</v>
       </c>
-      <c r="J105" s="27"/>
+      <c r="J105" s="18"/>
     </row>
     <row r="106" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A106" s="12">
@@ -4069,7 +4072,7 @@
       <c r="I106" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="J106" s="27"/>
+      <c r="J106" s="18"/>
     </row>
     <row r="107" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A107" s="12">
@@ -4099,7 +4102,7 @@
       <c r="I107" s="13">
         <v>57</v>
       </c>
-      <c r="J107" s="27"/>
+      <c r="J107" s="18"/>
     </row>
     <row r="108" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A108" s="12">
@@ -4129,7 +4132,7 @@
       <c r="I108" s="13">
         <v>57</v>
       </c>
-      <c r="J108" s="27"/>
+      <c r="J108" s="18"/>
     </row>
     <row r="109" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A109" s="12" t="s">
@@ -4149,7 +4152,7 @@
       <c r="G109" s="13"/>
       <c r="H109" s="13"/>
       <c r="I109" s="13"/>
-      <c r="J109" s="27"/>
+      <c r="J109" s="18"/>
     </row>
     <row r="110" spans="1:10" s="14" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A110" s="12">
@@ -4179,7 +4182,7 @@
       <c r="I110" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="J110" s="27"/>
+      <c r="J110" s="18"/>
     </row>
     <row r="111" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A111" s="12">
@@ -4209,7 +4212,7 @@
       <c r="I111" s="13">
         <v>56</v>
       </c>
-      <c r="J111" s="27"/>
+      <c r="J111" s="18"/>
     </row>
     <row r="112" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A112" s="12">
@@ -4239,7 +4242,7 @@
       <c r="I112" s="13">
         <v>56</v>
       </c>
-      <c r="J112" s="27"/>
+      <c r="J112" s="18"/>
     </row>
     <row r="113" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A113" s="12">
@@ -4269,7 +4272,7 @@
       <c r="I113" s="13">
         <v>56</v>
       </c>
-      <c r="J113" s="27"/>
+      <c r="J113" s="18"/>
     </row>
     <row r="114" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A114" s="12">
@@ -4299,7 +4302,7 @@
       <c r="I114" s="13">
         <v>56</v>
       </c>
-      <c r="J114" s="27"/>
+      <c r="J114" s="18"/>
     </row>
     <row r="115" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A115" s="12">
@@ -4329,7 +4332,7 @@
       <c r="I115" s="13">
         <v>56</v>
       </c>
-      <c r="J115" s="27"/>
+      <c r="J115" s="18"/>
     </row>
     <row r="116" spans="1:10" s="14" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A116" s="12">
@@ -4359,7 +4362,7 @@
       <c r="I116" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="J116" s="27"/>
+      <c r="J116" s="18"/>
     </row>
     <row r="117" spans="1:10" s="14" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A117" s="12">
@@ -4389,7 +4392,7 @@
       <c r="I117" s="13">
         <v>57</v>
       </c>
-      <c r="J117" s="27"/>
+      <c r="J117" s="18"/>
     </row>
     <row r="118" spans="1:10" s="14" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A118" s="12">
@@ -4419,7 +4422,7 @@
       <c r="I118" s="13">
         <v>57</v>
       </c>
-      <c r="J118" s="27"/>
+      <c r="J118" s="18"/>
     </row>
     <row r="119" spans="1:10" s="14" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A119" s="12">
@@ -4449,7 +4452,7 @@
       <c r="I119" s="13">
         <v>57</v>
       </c>
-      <c r="J119" s="27"/>
+      <c r="J119" s="18"/>
     </row>
     <row r="120" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A120" s="12">
@@ -4479,7 +4482,7 @@
       <c r="I120" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="J120" s="27"/>
+      <c r="J120" s="18"/>
     </row>
     <row r="121" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A121" s="12">
@@ -4509,7 +4512,7 @@
       <c r="I121" s="13">
         <v>58</v>
       </c>
-      <c r="J121" s="27"/>
+      <c r="J121" s="18"/>
     </row>
     <row r="122" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A122" s="12">
@@ -4539,7 +4542,7 @@
       <c r="I122" s="13">
         <v>58</v>
       </c>
-      <c r="J122" s="27"/>
+      <c r="J122" s="18"/>
     </row>
     <row r="123" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A123" s="12">
@@ -4569,7 +4572,7 @@
       <c r="I123" s="13">
         <v>58</v>
       </c>
-      <c r="J123" s="27"/>
+      <c r="J123" s="18"/>
     </row>
     <row r="124" spans="1:10" s="14" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A124" s="12">
@@ -4599,7 +4602,7 @@
       <c r="I124" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="J124" s="27"/>
+      <c r="J124" s="18"/>
     </row>
     <row r="125" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A125" s="12">
@@ -4629,7 +4632,7 @@
       <c r="I125" s="13">
         <v>57</v>
       </c>
-      <c r="J125" s="27"/>
+      <c r="J125" s="18"/>
     </row>
     <row r="126" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A126" s="12">
@@ -4659,7 +4662,7 @@
       <c r="I126" s="13">
         <v>57</v>
       </c>
-      <c r="J126" s="27"/>
+      <c r="J126" s="18"/>
     </row>
     <row r="127" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A127" s="12">
@@ -4689,7 +4692,7 @@
       <c r="I127" s="13">
         <v>57</v>
       </c>
-      <c r="J127" s="27"/>
+      <c r="J127" s="18"/>
     </row>
     <row r="128" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A128" s="12" t="s">
@@ -4709,7 +4712,7 @@
       <c r="G128" s="13"/>
       <c r="H128" s="13"/>
       <c r="I128" s="13"/>
-      <c r="J128" s="27"/>
+      <c r="J128" s="18"/>
     </row>
     <row r="129" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A129" s="12" t="s">
@@ -4729,7 +4732,7 @@
       <c r="G129" s="13"/>
       <c r="H129" s="13"/>
       <c r="I129" s="13"/>
-      <c r="J129" s="27"/>
+      <c r="J129" s="18"/>
     </row>
     <row r="130" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A130" s="12" t="s">
@@ -4749,7 +4752,7 @@
       <c r="G130" s="13"/>
       <c r="H130" s="13"/>
       <c r="I130" s="13"/>
-      <c r="J130" s="27"/>
+      <c r="J130" s="18"/>
     </row>
     <row r="131" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A131" s="12" t="s">
@@ -4769,7 +4772,7 @@
       <c r="G131" s="13"/>
       <c r="H131" s="13"/>
       <c r="I131" s="13"/>
-      <c r="J131" s="27"/>
+      <c r="J131" s="18"/>
     </row>
     <row r="132" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A132" s="12">
@@ -4799,7 +4802,7 @@
       <c r="I132" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="J132" s="27"/>
+      <c r="J132" s="18"/>
     </row>
     <row r="133" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A133" s="12">
@@ -4829,7 +4832,7 @@
       <c r="I133" s="13">
         <v>57</v>
       </c>
-      <c r="J133" s="27"/>
+      <c r="J133" s="18"/>
     </row>
     <row r="134" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A134" s="12">
@@ -4859,7 +4862,7 @@
       <c r="I134" s="13">
         <v>57</v>
       </c>
-      <c r="J134" s="27"/>
+      <c r="J134" s="18"/>
     </row>
     <row r="135" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A135" s="12">
@@ -4889,7 +4892,7 @@
       <c r="I135" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="J135" s="27"/>
+      <c r="J135" s="18"/>
     </row>
     <row r="136" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A136" s="12">
@@ -4919,7 +4922,7 @@
       <c r="I136" s="13">
         <v>57</v>
       </c>
-      <c r="J136" s="27"/>
+      <c r="J136" s="18"/>
     </row>
     <row r="137" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A137" s="12">
@@ -4949,7 +4952,7 @@
       <c r="I137" s="13">
         <v>57</v>
       </c>
-      <c r="J137" s="27"/>
+      <c r="J137" s="18"/>
     </row>
     <row r="138" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A138" s="12" t="s">
@@ -4969,7 +4972,7 @@
       <c r="G138" s="13"/>
       <c r="H138" s="13"/>
       <c r="I138" s="13"/>
-      <c r="J138" s="27"/>
+      <c r="J138" s="18"/>
     </row>
     <row r="139" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A139" s="12">
@@ -4999,7 +5002,7 @@
       <c r="I139" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="J139" s="27"/>
+      <c r="J139" s="18"/>
     </row>
     <row r="140" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A140" s="12">
@@ -5029,7 +5032,7 @@
       <c r="I140" s="13">
         <v>49</v>
       </c>
-      <c r="J140" s="27"/>
+      <c r="J140" s="18"/>
     </row>
     <row r="141" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A141" s="12">
@@ -5059,7 +5062,7 @@
       <c r="I141" s="13">
         <v>49</v>
       </c>
-      <c r="J141" s="27"/>
+      <c r="J141" s="18"/>
     </row>
     <row r="142" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A142" s="12" t="s">
@@ -5079,7 +5082,7 @@
       <c r="G142" s="13"/>
       <c r="H142" s="13"/>
       <c r="I142" s="13"/>
-      <c r="J142" s="27"/>
+      <c r="J142" s="18"/>
     </row>
     <row r="143" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A143" s="12" t="s">
@@ -5099,7 +5102,7 @@
       <c r="G143" s="13"/>
       <c r="H143" s="13"/>
       <c r="I143" s="13"/>
-      <c r="J143" s="27"/>
+      <c r="J143" s="18"/>
     </row>
     <row r="144" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A144" s="12" t="s">
@@ -5119,7 +5122,7 @@
       <c r="G144" s="13"/>
       <c r="H144" s="13"/>
       <c r="I144" s="13"/>
-      <c r="J144" s="27"/>
+      <c r="J144" s="18"/>
     </row>
     <row r="145" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A145" s="12">
@@ -5149,7 +5152,7 @@
       <c r="I145" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="J145" s="27"/>
+      <c r="J145" s="18"/>
     </row>
     <row r="146" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A146" s="12">
@@ -5179,7 +5182,7 @@
       <c r="I146" s="13">
         <v>57</v>
       </c>
-      <c r="J146" s="27"/>
+      <c r="J146" s="18"/>
     </row>
     <row r="147" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A147" s="12">
@@ -5209,7 +5212,7 @@
       <c r="I147" s="13">
         <v>57</v>
       </c>
-      <c r="J147" s="27"/>
+      <c r="J147" s="18"/>
     </row>
     <row r="148" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A148" s="12">
@@ -5239,7 +5242,7 @@
       <c r="I148" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="J148" s="27"/>
+      <c r="J148" s="18"/>
     </row>
     <row r="149" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A149" s="12">
@@ -5269,7 +5272,7 @@
       <c r="I149" s="13">
         <v>57</v>
       </c>
-      <c r="J149" s="27"/>
+      <c r="J149" s="18"/>
     </row>
     <row r="150" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A150" s="12">
@@ -5299,7 +5302,7 @@
       <c r="I150" s="13">
         <v>57</v>
       </c>
-      <c r="J150" s="27"/>
+      <c r="J150" s="18"/>
     </row>
     <row r="151" spans="1:10" s="14" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A151" s="12">
@@ -5329,7 +5332,7 @@
       <c r="I151" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="J151" s="27"/>
+      <c r="J151" s="18"/>
     </row>
     <row r="152" spans="1:10" s="14" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A152" s="12">
@@ -5359,7 +5362,7 @@
       <c r="I152" s="13">
         <v>49</v>
       </c>
-      <c r="J152" s="27"/>
+      <c r="J152" s="18"/>
     </row>
     <row r="153" spans="1:10" s="14" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A153" s="12">
@@ -5389,7 +5392,7 @@
       <c r="I153" s="13">
         <v>49</v>
       </c>
-      <c r="J153" s="27"/>
+      <c r="J153" s="18"/>
     </row>
     <row r="154" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A154" s="12" t="s">
@@ -5409,7 +5412,7 @@
       <c r="G154" s="13"/>
       <c r="H154" s="13"/>
       <c r="I154" s="13"/>
-      <c r="J154" s="27"/>
+      <c r="J154" s="18"/>
     </row>
     <row r="155" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A155" s="12">
@@ -5439,7 +5442,7 @@
       <c r="I155" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="J155" s="27"/>
+      <c r="J155" s="18"/>
     </row>
     <row r="156" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A156" s="12">
@@ -5469,7 +5472,7 @@
       <c r="I156" s="13">
         <v>56</v>
       </c>
-      <c r="J156" s="27"/>
+      <c r="J156" s="18"/>
     </row>
     <row r="157" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A157" s="12">
@@ -5499,7 +5502,7 @@
       <c r="I157" s="13">
         <v>56</v>
       </c>
-      <c r="J157" s="27"/>
+      <c r="J157" s="18"/>
     </row>
     <row r="158" spans="1:10" s="14" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A158" s="12">
@@ -5529,7 +5532,7 @@
       <c r="I158" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="J158" s="27"/>
+      <c r="J158" s="18"/>
     </row>
     <row r="159" spans="1:10" s="14" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A159" s="12">
@@ -5559,7 +5562,7 @@
       <c r="I159" s="13">
         <v>57</v>
       </c>
-      <c r="J159" s="27"/>
+      <c r="J159" s="18"/>
     </row>
     <row r="160" spans="1:10" s="14" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A160" s="12">
@@ -5589,7 +5592,7 @@
       <c r="I160" s="13">
         <v>57</v>
       </c>
-      <c r="J160" s="27"/>
+      <c r="J160" s="18"/>
     </row>
     <row r="161" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A161" s="13">
@@ -5619,7 +5622,7 @@
       <c r="I161" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="J161" s="27"/>
+      <c r="J161" s="18"/>
     </row>
     <row r="162" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A162" s="13">
@@ -5649,7 +5652,7 @@
       <c r="I162" s="13">
         <v>57</v>
       </c>
-      <c r="J162" s="27"/>
+      <c r="J162" s="18"/>
     </row>
     <row r="163" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A163" s="13">
@@ -5679,7 +5682,7 @@
       <c r="I163" s="13">
         <v>57</v>
       </c>
-      <c r="J163" s="27"/>
+      <c r="J163" s="18"/>
     </row>
     <row r="164" spans="1:10" s="14" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A164" s="13">
@@ -5709,7 +5712,7 @@
       <c r="I164" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="J164" s="27"/>
+      <c r="J164" s="18"/>
     </row>
     <row r="165" spans="1:10" s="14" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A165" s="13">
@@ -5739,7 +5742,7 @@
       <c r="I165" s="13">
         <v>58</v>
       </c>
-      <c r="J165" s="27"/>
+      <c r="J165" s="18"/>
     </row>
     <row r="166" spans="1:10" s="14" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A166" s="13">
@@ -5769,7 +5772,7 @@
       <c r="I166" s="13">
         <v>58</v>
       </c>
-      <c r="J166" s="27"/>
+      <c r="J166" s="18"/>
     </row>
     <row r="167" spans="1:10" s="14" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A167" s="13">
@@ -5799,7 +5802,7 @@
       <c r="I167" s="13">
         <v>58</v>
       </c>
-      <c r="J167" s="27"/>
+      <c r="J167" s="18"/>
     </row>
     <row r="168" spans="1:10" s="14" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A168" s="13">
@@ -5829,7 +5832,7 @@
       <c r="I168" s="13">
         <v>58</v>
       </c>
-      <c r="J168" s="27"/>
+      <c r="J168" s="18"/>
     </row>
     <row r="169" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A169" s="13" t="s">
@@ -5849,7 +5852,7 @@
       <c r="G169" s="13"/>
       <c r="H169" s="13"/>
       <c r="I169" s="13"/>
-      <c r="J169" s="27"/>
+      <c r="J169" s="18"/>
     </row>
     <row r="170" spans="1:10" s="14" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A170" s="13" t="s">
@@ -5869,7 +5872,7 @@
       <c r="G170" s="13"/>
       <c r="H170" s="13"/>
       <c r="I170" s="13"/>
-      <c r="J170" s="27"/>
+      <c r="J170" s="18"/>
     </row>
     <row r="171" spans="1:10" s="14" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A171" s="13">
@@ -5899,7 +5902,7 @@
       <c r="I171" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="J171" s="27"/>
+      <c r="J171" s="18"/>
     </row>
     <row r="172" spans="1:10" s="14" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A172" s="13">
@@ -5929,7 +5932,7 @@
       <c r="I172" s="13" t="s">
         <v>133</v>
       </c>
-      <c r="J172" s="27"/>
+      <c r="J172" s="18"/>
     </row>
     <row r="173" spans="1:10" s="14" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A173" s="13" t="s">
@@ -5949,7 +5952,7 @@
       <c r="G173" s="13"/>
       <c r="H173" s="13"/>
       <c r="I173" s="13"/>
-      <c r="J173" s="27"/>
+      <c r="J173" s="18"/>
     </row>
     <row r="174" spans="1:10" s="14" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A174" s="13">
@@ -5979,7 +5982,7 @@
       <c r="I174" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="J174" s="27"/>
+      <c r="J174" s="18"/>
     </row>
     <row r="175" spans="1:10" s="14" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A175" s="13">
@@ -6009,7 +6012,7 @@
       <c r="I175" s="13" t="s">
         <v>133</v>
       </c>
-      <c r="J175" s="27"/>
+      <c r="J175" s="18"/>
     </row>
     <row r="176" spans="1:10" s="14" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A176" s="13">
@@ -6039,7 +6042,7 @@
       <c r="I176" s="13" t="s">
         <v>133</v>
       </c>
-      <c r="J176" s="27"/>
+      <c r="J176" s="18"/>
     </row>
     <row r="177" spans="1:10" s="14" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A177" s="13" t="s">
@@ -6059,7 +6062,7 @@
       <c r="G177" s="13"/>
       <c r="H177" s="13"/>
       <c r="I177" s="13"/>
-      <c r="J177" s="27"/>
+      <c r="J177" s="18"/>
     </row>
     <row r="178" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A178" s="13">
@@ -6089,7 +6092,7 @@
       <c r="I178" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="J178" s="27"/>
+      <c r="J178" s="18"/>
     </row>
     <row r="179" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A179" s="13">
@@ -6119,7 +6122,7 @@
       <c r="I179" s="13" t="s">
         <v>133</v>
       </c>
-      <c r="J179" s="27"/>
+      <c r="J179" s="18"/>
     </row>
     <row r="180" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A180" s="13">
@@ -6149,7 +6152,7 @@
       <c r="I180" s="13" t="s">
         <v>133</v>
       </c>
-      <c r="J180" s="27"/>
+      <c r="J180" s="18"/>
     </row>
     <row r="181" spans="1:10" s="14" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A181" s="13">
@@ -6179,7 +6182,7 @@
       <c r="I181" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="J181" s="27"/>
+      <c r="J181" s="18"/>
     </row>
     <row r="182" spans="1:10" s="14" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A182" s="13">
@@ -6209,7 +6212,7 @@
       <c r="I182" s="13" t="s">
         <v>133</v>
       </c>
-      <c r="J182" s="27"/>
+      <c r="J182" s="18"/>
     </row>
     <row r="183" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A183" s="13">
@@ -6239,7 +6242,7 @@
       <c r="I183" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="J183" s="27"/>
+      <c r="J183" s="18"/>
     </row>
     <row r="184" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A184" s="13">
@@ -6269,7 +6272,7 @@
       <c r="I184" s="13">
         <v>57</v>
       </c>
-      <c r="J184" s="27"/>
+      <c r="J184" s="18"/>
     </row>
     <row r="185" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A185" s="13">
@@ -6299,7 +6302,7 @@
       <c r="I185" s="13">
         <v>57</v>
       </c>
-      <c r="J185" s="27"/>
+      <c r="J185" s="18"/>
     </row>
     <row r="186" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A186" s="13">
@@ -6329,7 +6332,7 @@
       <c r="I186" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="J186" s="27"/>
+      <c r="J186" s="18"/>
     </row>
     <row r="187" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A187" s="13">
@@ -6359,7 +6362,7 @@
       <c r="I187" s="13">
         <v>57</v>
       </c>
-      <c r="J187" s="27"/>
+      <c r="J187" s="18"/>
     </row>
     <row r="188" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A188" s="13">
@@ -6389,7 +6392,7 @@
       <c r="I188" s="13">
         <v>49</v>
       </c>
-      <c r="J188" s="27"/>
+      <c r="J188" s="18"/>
     </row>
     <row r="189" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A189" s="13">
@@ -6419,7 +6422,7 @@
       <c r="I189" s="13">
         <v>57</v>
       </c>
-      <c r="J189" s="27"/>
+      <c r="J189" s="18"/>
     </row>
     <row r="190" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A190" s="13">
@@ -6449,7 +6452,7 @@
       <c r="I190" s="13">
         <v>49</v>
       </c>
-      <c r="J190" s="27"/>
+      <c r="J190" s="18"/>
     </row>
     <row r="191" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A191" s="13">
@@ -6479,7 +6482,7 @@
       <c r="I191" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="J191" s="27"/>
+      <c r="J191" s="18"/>
     </row>
     <row r="192" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A192" s="13">
@@ -6509,7 +6512,7 @@
       <c r="I192" s="13">
         <v>58</v>
       </c>
-      <c r="J192" s="27"/>
+      <c r="J192" s="18"/>
     </row>
     <row r="193" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A193" s="13">
@@ -6539,7 +6542,7 @@
       <c r="I193" s="13">
         <v>58</v>
       </c>
-      <c r="J193" s="27"/>
+      <c r="J193" s="18"/>
     </row>
     <row r="194" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A194" s="13">
@@ -6569,7 +6572,7 @@
       <c r="I194" s="13">
         <v>58</v>
       </c>
-      <c r="J194" s="27"/>
+      <c r="J194" s="18"/>
     </row>
     <row r="195" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A195" s="13">
@@ -6599,7 +6602,7 @@
       <c r="I195" s="13">
         <v>58</v>
       </c>
-      <c r="J195" s="27"/>
+      <c r="J195" s="18"/>
     </row>
     <row r="196" spans="1:10" s="14" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A196" s="13">
@@ -6629,7 +6632,7 @@
       <c r="I196" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="J196" s="27"/>
+      <c r="J196" s="18"/>
     </row>
     <row r="197" spans="1:10" s="14" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A197" s="13">
@@ -6659,7 +6662,7 @@
       <c r="I197" s="13" t="s">
         <v>133</v>
       </c>
-      <c r="J197" s="27"/>
+      <c r="J197" s="18"/>
     </row>
     <row r="198" spans="1:10" s="14" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A198" s="13">
@@ -6689,7 +6692,7 @@
       <c r="I198" s="13" t="s">
         <v>133</v>
       </c>
-      <c r="J198" s="27"/>
+      <c r="J198" s="18"/>
     </row>
     <row r="199" spans="1:10" s="14" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A199" s="13">
@@ -6719,7 +6722,7 @@
       <c r="I199" s="13" t="s">
         <v>133</v>
       </c>
-      <c r="J199" s="27"/>
+      <c r="J199" s="18"/>
     </row>
     <row r="200" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A200" s="13">
@@ -6749,7 +6752,7 @@
       <c r="I200" s="13" t="s">
         <v>133</v>
       </c>
-      <c r="J200" s="27"/>
+      <c r="J200" s="18"/>
     </row>
     <row r="201" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A201" s="13">
@@ -6779,7 +6782,7 @@
       <c r="I201" s="13" t="s">
         <v>133</v>
       </c>
-      <c r="J201" s="27"/>
+      <c r="J201" s="18"/>
     </row>
     <row r="202" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A202" s="13">
@@ -6809,7 +6812,7 @@
       <c r="I202" s="13" t="s">
         <v>133</v>
       </c>
-      <c r="J202" s="27"/>
+      <c r="J202" s="18"/>
     </row>
     <row r="203" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A203" s="13">
@@ -6839,7 +6842,7 @@
       <c r="I203" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="J203" s="27"/>
+      <c r="J203" s="18"/>
     </row>
     <row r="204" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A204" s="13">
@@ -6869,7 +6872,7 @@
       <c r="I204" s="13" t="s">
         <v>133</v>
       </c>
-      <c r="J204" s="27"/>
+      <c r="J204" s="18"/>
     </row>
     <row r="205" spans="1:10" s="14" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A205" s="13">
@@ -6899,7 +6902,7 @@
       <c r="I205" s="13" t="s">
         <v>133</v>
       </c>
-      <c r="J205" s="27"/>
+      <c r="J205" s="18"/>
     </row>
     <row r="206" spans="1:10" s="14" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A206" s="13">
@@ -6929,7 +6932,7 @@
       <c r="I206" s="13" t="s">
         <v>133</v>
       </c>
-      <c r="J206" s="27"/>
+      <c r="J206" s="18"/>
     </row>
     <row r="207" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A207" s="13">
@@ -6959,7 +6962,7 @@
       <c r="I207" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="J207" s="27"/>
+      <c r="J207" s="18"/>
     </row>
     <row r="208" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A208" s="13">
@@ -6989,7 +6992,7 @@
       <c r="I208" s="13">
         <v>58</v>
       </c>
-      <c r="J208" s="27"/>
+      <c r="J208" s="18"/>
     </row>
     <row r="209" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A209" s="13">
@@ -7019,7 +7022,7 @@
       <c r="I209" s="13">
         <v>58</v>
       </c>
-      <c r="J209" s="27"/>
+      <c r="J209" s="18"/>
     </row>
     <row r="210" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A210" s="13">
@@ -7049,7 +7052,7 @@
       <c r="I210" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="J210" s="27"/>
+      <c r="J210" s="18"/>
     </row>
     <row r="211" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A211" s="13">
@@ -7079,7 +7082,7 @@
       <c r="I211" s="13">
         <v>58</v>
       </c>
-      <c r="J211" s="27"/>
+      <c r="J211" s="18"/>
     </row>
     <row r="212" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A212" s="13">
@@ -7109,7 +7112,7 @@
       <c r="I212" s="13">
         <v>58</v>
       </c>
-      <c r="J212" s="27"/>
+      <c r="J212" s="18"/>
     </row>
     <row r="213" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A213" s="13" t="s">
@@ -7129,7 +7132,7 @@
       <c r="G213" s="13"/>
       <c r="H213" s="13"/>
       <c r="I213" s="13"/>
-      <c r="J213" s="27"/>
+      <c r="J213" s="18"/>
     </row>
     <row r="214" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A214" s="13">
@@ -7159,7 +7162,7 @@
       <c r="I214" s="13" t="s">
         <v>133</v>
       </c>
-      <c r="J214" s="27"/>
+      <c r="J214" s="18"/>
     </row>
     <row r="215" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A215" s="13">
@@ -7189,7 +7192,7 @@
       <c r="I215" s="13" t="s">
         <v>133</v>
       </c>
-      <c r="J215" s="27"/>
+      <c r="J215" s="18"/>
     </row>
     <row r="216" spans="1:10" s="14" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A216" s="13">
@@ -7219,7 +7222,7 @@
       <c r="I216" s="13" t="s">
         <v>133</v>
       </c>
-      <c r="J216" s="27"/>
+      <c r="J216" s="18"/>
     </row>
     <row r="217" spans="1:10" s="14" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A217" s="13">
@@ -7249,7 +7252,7 @@
       <c r="I217" s="13" t="s">
         <v>133</v>
       </c>
-      <c r="J217" s="27"/>
+      <c r="J217" s="18"/>
     </row>
     <row r="218" spans="1:10" s="14" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A218" s="13">
@@ -7279,7 +7282,7 @@
       <c r="I218" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="J218" s="27"/>
+      <c r="J218" s="18"/>
     </row>
     <row r="219" spans="1:10" s="14" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A219" s="13">
@@ -7309,7 +7312,7 @@
       <c r="I219" s="13">
         <v>57</v>
       </c>
-      <c r="J219" s="27"/>
+      <c r="J219" s="18"/>
     </row>
     <row r="220" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A220" s="13">
@@ -7339,7 +7342,7 @@
       <c r="I220" s="13" t="s">
         <v>133</v>
       </c>
-      <c r="J220" s="27"/>
+      <c r="J220" s="18"/>
     </row>
     <row r="221" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A221" s="13">
@@ -7369,7 +7372,7 @@
       <c r="I221" s="13" t="s">
         <v>133</v>
       </c>
-      <c r="J221" s="27"/>
+      <c r="J221" s="18"/>
     </row>
     <row r="222" spans="1:10" s="14" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A222" s="13">
@@ -7399,7 +7402,7 @@
       <c r="I222" s="13" t="s">
         <v>133</v>
       </c>
-      <c r="J222" s="27"/>
+      <c r="J222" s="18"/>
     </row>
     <row r="223" spans="1:10" s="14" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A223" s="13">
@@ -7429,7 +7432,7 @@
       <c r="I223" s="13" t="s">
         <v>133</v>
       </c>
-      <c r="J223" s="27"/>
+      <c r="J223" s="18"/>
     </row>
     <row r="224" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A224" s="13">
@@ -7459,7 +7462,7 @@
       <c r="I224" s="13" t="s">
         <v>133</v>
       </c>
-      <c r="J224" s="27"/>
+      <c r="J224" s="18"/>
     </row>
     <row r="225" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A225" s="13">
@@ -7489,52 +7492,52 @@
       <c r="I225" s="13" t="s">
         <v>133</v>
       </c>
-      <c r="J225" s="27"/>
+      <c r="J225" s="18"/>
     </row>
     <row r="228" spans="1:10" s="9" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A228" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="H228" s="25" t="s">
+      <c r="H228" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="I228" s="25"/>
-      <c r="J228" s="25"/>
+      <c r="I228" s="28"/>
+      <c r="J228" s="28"/>
     </row>
     <row r="229" spans="1:10" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H229" s="26" t="s">
+      <c r="H229" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="I229" s="26"/>
-      <c r="J229" s="26"/>
+      <c r="I229" s="29"/>
+      <c r="J229" s="29"/>
     </row>
     <row r="231" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A231" s="18" t="s">
+      <c r="A231" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="B231" s="18"/>
-      <c r="C231" s="18"/>
-      <c r="D231" s="18"/>
-      <c r="E231" s="18"/>
-      <c r="F231" s="18"/>
-      <c r="G231" s="18"/>
-      <c r="H231" s="18"/>
-      <c r="I231" s="18"/>
-      <c r="J231" s="18"/>
+      <c r="B231" s="21"/>
+      <c r="C231" s="21"/>
+      <c r="D231" s="21"/>
+      <c r="E231" s="21"/>
+      <c r="F231" s="21"/>
+      <c r="G231" s="21"/>
+      <c r="H231" s="21"/>
+      <c r="I231" s="21"/>
+      <c r="J231" s="21"/>
     </row>
     <row r="232" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A232" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="B232" s="18"/>
-      <c r="C232" s="18"/>
-      <c r="D232" s="18"/>
-      <c r="E232" s="18"/>
-      <c r="F232" s="18"/>
-      <c r="G232" s="18"/>
-      <c r="H232" s="18"/>
-      <c r="I232" s="18"/>
-      <c r="J232" s="18"/>
+      <c r="A232" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="B232" s="21"/>
+      <c r="C232" s="21"/>
+      <c r="D232" s="21"/>
+      <c r="E232" s="21"/>
+      <c r="F232" s="21"/>
+      <c r="G232" s="21"/>
+      <c r="H232" s="21"/>
+      <c r="I232" s="21"/>
+      <c r="J232" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="10">
